--- a/yieldFiles/A1/a1_det5.xlsx
+++ b/yieldFiles/A1/a1_det5.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C718"/>
+  <dimension ref="A1:C859"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2396,10 +2396,10 @@
         <v>2.48496</v>
       </c>
       <c r="B185" t="n">
-        <v>8.886374100000001e-13</v>
+        <v>4.542374880000001e-13</v>
       </c>
       <c r="C185" t="n">
-        <v>1.094819616e-14</v>
+        <v>7.27034058e-15</v>
       </c>
     </row>
     <row r="186">
@@ -2407,10 +2407,10 @@
         <v>2.48496</v>
       </c>
       <c r="B186" t="n">
-        <v>4.542374880000001e-13</v>
+        <v>8.886374100000001e-13</v>
       </c>
       <c r="C186" t="n">
-        <v>7.27034058e-15</v>
+        <v>1.094819616e-14</v>
       </c>
     </row>
     <row r="187">
@@ -3683,10 +3683,10 @@
         <v>2.71393</v>
       </c>
       <c r="B302" t="n">
-        <v>2.38031568e-13</v>
+        <v>2.62075986e-13</v>
       </c>
       <c r="C302" t="n">
-        <v>8.50844628e-15</v>
+        <v>6.85133748e-15</v>
       </c>
     </row>
     <row r="303">
@@ -3694,10 +3694,10 @@
         <v>2.71393</v>
       </c>
       <c r="B303" t="n">
-        <v>2.62075986e-13</v>
+        <v>2.38031568e-13</v>
       </c>
       <c r="C303" t="n">
-        <v>6.85133748e-15</v>
+        <v>8.50844628e-15</v>
       </c>
     </row>
     <row r="304">
@@ -5594,2675 +5594,4226 @@
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>2.86985</v>
+        <v>2.86983</v>
       </c>
       <c r="B476" t="n">
-        <v>1.592208576e-13</v>
+        <v>2.1343446e-13</v>
       </c>
       <c r="C476" t="n">
-        <v>7.26249078e-15</v>
+        <v>6.71040954e-15</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>2.87044</v>
+        <v>2.86985</v>
       </c>
       <c r="B477" t="n">
-        <v>1.412999244e-13</v>
+        <v>1.592208576e-13</v>
       </c>
       <c r="C477" t="n">
-        <v>8.54468352e-15</v>
+        <v>7.26249078e-15</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>2.87098</v>
+        <v>2.87044</v>
       </c>
       <c r="B478" t="n">
-        <v>2.84414274e-13</v>
+        <v>1.412999244e-13</v>
       </c>
       <c r="C478" t="n">
-        <v>8.48598624e-15</v>
+        <v>8.54468352e-15</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>2.8711</v>
+        <v>2.87079</v>
       </c>
       <c r="B479" t="n">
-        <v>2.16768222e-13</v>
+        <v>3.47613174e-13</v>
       </c>
       <c r="C479" t="n">
-        <v>9.15805728e-15</v>
+        <v>1.79057142e-14</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>2.87156</v>
+        <v>2.87098</v>
       </c>
       <c r="B480" t="n">
-        <v>2.82187494e-13</v>
+        <v>2.84414274e-13</v>
       </c>
       <c r="C480" t="n">
-        <v>9.71803638e-15</v>
+        <v>8.48598624e-15</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>2.87192</v>
+        <v>2.8711</v>
       </c>
       <c r="B481" t="n">
-        <v>3.82656924e-13</v>
+        <v>2.16768222e-13</v>
       </c>
       <c r="C481" t="n">
-        <v>1.15551459e-14</v>
+        <v>9.15805728e-15</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>2.87203</v>
+        <v>2.87156</v>
       </c>
       <c r="B482" t="n">
-        <v>3.30851448e-13</v>
+        <v>2.82187494e-13</v>
       </c>
       <c r="C482" t="n">
-        <v>1.16124975e-14</v>
+        <v>9.71803638e-15</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>2.87225</v>
+        <v>2.87192</v>
       </c>
       <c r="B483" t="n">
-        <v>3.52129212e-13</v>
+        <v>3.82656924e-13</v>
       </c>
       <c r="C483" t="n">
-        <v>1.14860997e-14</v>
+        <v>1.15551459e-14</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>2.8725</v>
+        <v>2.87192</v>
       </c>
       <c r="B484" t="n">
-        <v>3.5354538e-13</v>
+        <v>3.83036598e-13</v>
       </c>
       <c r="C484" t="n">
-        <v>1.266928884e-14</v>
+        <v>1.77226056e-14</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>2.87281</v>
+        <v>2.87203</v>
       </c>
       <c r="B485" t="n">
-        <v>3.62245842e-13</v>
+        <v>3.30851448e-13</v>
       </c>
       <c r="C485" t="n">
-        <v>1.498690224e-14</v>
+        <v>1.16124975e-14</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>2.87297</v>
+        <v>2.87225</v>
       </c>
       <c r="B486" t="n">
-        <v>3.72998466e-13</v>
+        <v>3.52129212e-13</v>
       </c>
       <c r="C486" t="n">
-        <v>1.063846548e-14</v>
+        <v>1.14860997e-14</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>2.87318</v>
+        <v>2.8725</v>
       </c>
       <c r="B487" t="n">
-        <v>3.42007776e-13</v>
+        <v>3.5354538e-13</v>
       </c>
       <c r="C487" t="n">
-        <v>1.222114536e-14</v>
+        <v>1.266928884e-14</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>2.87337</v>
+        <v>2.87281</v>
       </c>
       <c r="B488" t="n">
-        <v>3.3698871e-13</v>
+        <v>3.62245842e-13</v>
       </c>
       <c r="C488" t="n">
-        <v>1.231670466e-14</v>
+        <v>1.498690224e-14</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>2.87386</v>
+        <v>2.87288</v>
       </c>
       <c r="B489" t="n">
-        <v>2.43577692e-13</v>
+        <v>3.10861692e-13</v>
       </c>
       <c r="C489" t="n">
-        <v>8.4959667e-15</v>
+        <v>2.20672296e-14</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>2.87398</v>
+        <v>2.87297</v>
       </c>
       <c r="B490" t="n">
-        <v>2.5982838e-13</v>
+        <v>3.72998466e-13</v>
       </c>
       <c r="C490" t="n">
-        <v>1.327181706e-14</v>
+        <v>1.063846548e-14</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>2.87487</v>
+        <v>2.87318</v>
       </c>
       <c r="B491" t="n">
-        <v>1.99836684e-13</v>
+        <v>3.42007776e-13</v>
       </c>
       <c r="C491" t="n">
-        <v>1.145284218e-14</v>
+        <v>1.222114536e-14</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>2.87584</v>
+        <v>2.87337</v>
       </c>
       <c r="B492" t="n">
-        <v>1.65475386e-13</v>
+        <v>3.3698871e-13</v>
       </c>
       <c r="C492" t="n">
-        <v>5.279342940000001e-15</v>
+        <v>1.231670466e-14</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>2.87602</v>
+        <v>2.87386</v>
       </c>
       <c r="B493" t="n">
-        <v>1.81511406e-13</v>
+        <v>2.43577692e-13</v>
       </c>
       <c r="C493" t="n">
-        <v>4.11379182e-15</v>
+        <v>8.4959667e-15</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>2.87699</v>
+        <v>2.87398</v>
       </c>
       <c r="B494" t="n">
-        <v>1.599239754e-13</v>
+        <v>2.5982838e-13</v>
       </c>
       <c r="C494" t="n">
-        <v>5.732853119999999e-15</v>
+        <v>1.327181706e-14</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>2.87795</v>
+        <v>2.87412</v>
       </c>
       <c r="B495" t="n">
-        <v>2.529782279999999e-13</v>
+        <v>2.36349468e-13</v>
       </c>
       <c r="C495" t="n">
-        <v>8.833620239999999e-15</v>
+        <v>1.375791192e-14</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>2.87894</v>
+        <v>2.8748</v>
       </c>
       <c r="B496" t="n">
-        <v>2.97997632e-13</v>
+        <v>1.93194792e-13</v>
       </c>
       <c r="C496" t="n">
-        <v>1.11558474e-14</v>
+        <v>2.14789752e-14</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>2.87894</v>
+        <v>2.87487</v>
       </c>
       <c r="B497" t="n">
-        <v>2.58559596e-13</v>
+        <v>1.99836684e-13</v>
       </c>
       <c r="C497" t="n">
-        <v>7.009823339999999e-15</v>
+        <v>1.145284218e-14</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>2.87999</v>
+        <v>2.87584</v>
       </c>
       <c r="B498" t="n">
-        <v>1.84947696e-13</v>
+        <v>1.65475386e-13</v>
       </c>
       <c r="C498" t="n">
-        <v>6.02387244e-15</v>
+        <v>5.279342940000001e-15</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>2.88082</v>
+        <v>2.87591</v>
       </c>
       <c r="B499" t="n">
-        <v>8.10549522e-14</v>
+        <v>1.8676116e-13</v>
       </c>
       <c r="C499" t="n">
-        <v>7.725084299999999e-15</v>
+        <v>1.457328186e-14</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>2.88879</v>
+        <v>2.87602</v>
       </c>
       <c r="B500" t="n">
-        <v>7.69950036e-14</v>
+        <v>1.81511406e-13</v>
       </c>
       <c r="C500" t="n">
-        <v>4.981611240000001e-15</v>
+        <v>4.11379182e-15</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>2.90444</v>
+        <v>2.87685</v>
       </c>
       <c r="B501" t="n">
-        <v>1.76907258e-13</v>
+        <v>2.16047322e-13</v>
       </c>
       <c r="C501" t="n">
-        <v>6.7130208e-15</v>
+        <v>2.3577435e-14</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>2.90481</v>
+        <v>2.87699</v>
       </c>
       <c r="B502" t="n">
-        <v>3.2887458e-13</v>
+        <v>1.599239754e-13</v>
       </c>
       <c r="C502" t="n">
-        <v>9.869697719999999e-15</v>
+        <v>5.732853119999999e-15</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>2.90576</v>
+        <v>2.87795</v>
       </c>
       <c r="B503" t="n">
-        <v>1.564035804e-12</v>
+        <v>2.529782279999999e-13</v>
       </c>
       <c r="C503" t="n">
-        <v>3.753966600000001e-14</v>
+        <v>8.833620239999999e-15</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>2.90595</v>
+        <v>2.87802</v>
       </c>
       <c r="B504" t="n">
-        <v>2.58719796e-12</v>
+        <v>3.41165124e-13</v>
       </c>
       <c r="C504" t="n">
-        <v>3.63719682e-14</v>
+        <v>1.04364693e-14</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>2.90595</v>
+        <v>2.8788</v>
       </c>
       <c r="B505" t="n">
-        <v>2.37626262e-12</v>
+        <v>1.8293238e-13</v>
       </c>
       <c r="C505" t="n">
-        <v>2.45589804e-14</v>
+        <v>1.220490108e-14</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>2.90644</v>
+        <v>2.87894</v>
       </c>
       <c r="B506" t="n">
-        <v>1.35417861e-12</v>
+        <v>2.58559596e-13</v>
       </c>
       <c r="C506" t="n">
-        <v>3.360579479999999e-14</v>
+        <v>7.009823339999999e-15</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>2.90675</v>
+        <v>2.87894</v>
       </c>
       <c r="B507" t="n">
-        <v>2.4448122e-12</v>
+        <v>2.97997632e-13</v>
       </c>
       <c r="C507" t="n">
-        <v>3.54272688e-14</v>
+        <v>1.11558474e-14</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>2.90706</v>
+        <v>2.87999</v>
       </c>
       <c r="B508" t="n">
-        <v>1.513036134e-12</v>
+        <v>1.84947696e-13</v>
       </c>
       <c r="C508" t="n">
-        <v>3.74108652e-14</v>
+        <v>6.02387244e-15</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>2.90739</v>
+        <v>2.88082</v>
       </c>
       <c r="B509" t="n">
-        <v>6.23924532e-13</v>
+        <v>8.10549522e-14</v>
       </c>
       <c r="C509" t="n">
-        <v>1.7166231e-14</v>
+        <v>7.725084299999999e-15</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>2.90788</v>
+        <v>2.88098</v>
       </c>
       <c r="B510" t="n">
-        <v>3.91155534e-13</v>
+        <v>1.19786346e-13</v>
       </c>
       <c r="C510" t="n">
-        <v>8.10357282e-15</v>
+        <v>1.110024198e-14</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>2.9085</v>
+        <v>2.88879</v>
       </c>
       <c r="B511" t="n">
-        <v>2.9736324e-13</v>
+        <v>7.69950036e-14</v>
       </c>
       <c r="C511" t="n">
-        <v>9.01246752e-15</v>
+        <v>4.981611240000001e-15</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>2.90904</v>
+        <v>2.90444</v>
       </c>
       <c r="B512" t="n">
-        <v>2.27943774e-13</v>
+        <v>1.76907258e-13</v>
       </c>
       <c r="C512" t="n">
-        <v>5.781185460000002e-15</v>
+        <v>6.7130208e-15</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>2.90949</v>
+        <v>2.90481</v>
       </c>
       <c r="B513" t="n">
-        <v>1.86839658e-13</v>
+        <v>3.2887458e-13</v>
       </c>
       <c r="C513" t="n">
-        <v>5.2399017e-15</v>
+        <v>9.869697719999999e-15</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>2.91001</v>
+        <v>2.90576</v>
       </c>
       <c r="B514" t="n">
-        <v>1.60006158e-13</v>
+        <v>1.564035804e-12</v>
       </c>
       <c r="C514" t="n">
-        <v>5.014388159999999e-15</v>
+        <v>3.753966600000001e-14</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>2.91027</v>
+        <v>2.90595</v>
       </c>
       <c r="B515" t="n">
-        <v>1.357965738e-13</v>
+        <v>2.58719796e-12</v>
       </c>
       <c r="C515" t="n">
-        <v>4.96248336e-15</v>
+        <v>3.63719682e-14</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>2.9115</v>
+        <v>2.90595</v>
       </c>
       <c r="B516" t="n">
-        <v>1.003880484e-13</v>
+        <v>2.37626262e-12</v>
       </c>
       <c r="C516" t="n">
-        <v>3.7744722e-15</v>
+        <v>2.45589804e-14</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>2.91247</v>
+        <v>2.90644</v>
       </c>
       <c r="B517" t="n">
-        <v>8.60384538e-14</v>
+        <v>1.35417861e-12</v>
       </c>
       <c r="C517" t="n">
-        <v>4.028789700000001e-15</v>
+        <v>3.360579479999999e-14</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>2.91341</v>
+        <v>2.90675</v>
       </c>
       <c r="B518" t="n">
-        <v>8.0047134e-14</v>
+        <v>2.4448122e-12</v>
       </c>
       <c r="C518" t="n">
-        <v>3.79670796e-15</v>
+        <v>3.54272688e-14</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>2.91393</v>
+        <v>2.90706</v>
       </c>
       <c r="B519" t="n">
-        <v>8.432271180000001e-14</v>
+        <v>1.513036134e-12</v>
       </c>
       <c r="C519" t="n">
-        <v>3.67854444e-15</v>
+        <v>3.74108652e-14</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>2.91445</v>
+        <v>2.90739</v>
       </c>
       <c r="B520" t="n">
-        <v>1.45898946e-13</v>
+        <v>6.23924532e-13</v>
       </c>
       <c r="C520" t="n">
-        <v>5.85505368e-15</v>
+        <v>1.7166231e-14</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>2.91504</v>
+        <v>2.90788</v>
       </c>
       <c r="B521" t="n">
-        <v>4.11252624e-13</v>
+        <v>3.91155534e-13</v>
       </c>
       <c r="C521" t="n">
-        <v>9.703233899999999e-15</v>
+        <v>8.10357282e-15</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>2.91537</v>
+        <v>2.9085</v>
       </c>
       <c r="B522" t="n">
-        <v>1.58912793e-12</v>
+        <v>2.9736324e-13</v>
       </c>
       <c r="C522" t="n">
-        <v>2.3321916e-14</v>
+        <v>9.01246752e-15</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>2.91549</v>
+        <v>2.90904</v>
       </c>
       <c r="B523" t="n">
-        <v>1.7118972e-12</v>
+        <v>2.27943774e-13</v>
       </c>
       <c r="C523" t="n">
-        <v>2.01568446e-14</v>
+        <v>5.781185460000002e-15</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>2.91566</v>
+        <v>2.90949</v>
       </c>
       <c r="B524" t="n">
-        <v>1.473365808e-12</v>
+        <v>1.86839658e-13</v>
       </c>
       <c r="C524" t="n">
-        <v>2.66576004e-14</v>
+        <v>5.2399017e-15</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>2.91585</v>
+        <v>2.91001</v>
       </c>
       <c r="B525" t="n">
-        <v>9.75212694e-13</v>
+        <v>1.60006158e-13</v>
       </c>
       <c r="C525" t="n">
-        <v>1.84452678e-14</v>
+        <v>5.014388159999999e-15</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>2.91604</v>
+        <v>2.91027</v>
       </c>
       <c r="B526" t="n">
-        <v>5.772598740000001e-13</v>
+        <v>1.357965738e-13</v>
       </c>
       <c r="C526" t="n">
-        <v>1.314351288e-14</v>
+        <v>4.96248336e-15</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>2.91648</v>
+        <v>2.9115</v>
       </c>
       <c r="B527" t="n">
-        <v>2.60038242e-13</v>
+        <v>1.003880484e-13</v>
       </c>
       <c r="C527" t="n">
-        <v>6.83706366e-15</v>
+        <v>3.7744722e-15</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>2.91693</v>
+        <v>2.91247</v>
       </c>
       <c r="B528" t="n">
-        <v>2.08870362e-13</v>
+        <v>8.60384538e-14</v>
       </c>
       <c r="C528" t="n">
-        <v>5.16856464e-15</v>
+        <v>4.028789700000001e-15</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>2.91745</v>
+        <v>2.91341</v>
       </c>
       <c r="B529" t="n">
-        <v>1.152312192e-13</v>
+        <v>8.0047134e-14</v>
       </c>
       <c r="C529" t="n">
-        <v>2.75974938e-15</v>
+        <v>3.79670796e-15</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>2.91793</v>
+        <v>2.91393</v>
       </c>
       <c r="B530" t="n">
-        <v>9.731573280000001e-14</v>
+        <v>8.432271180000001e-14</v>
       </c>
       <c r="C530" t="n">
-        <v>3.96781758e-15</v>
+        <v>3.67854444e-15</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>2.9184</v>
+        <v>2.91445</v>
       </c>
       <c r="B531" t="n">
-        <v>7.9910163e-14</v>
+        <v>1.45898946e-13</v>
       </c>
       <c r="C531" t="n">
-        <v>2.3748048e-15</v>
+        <v>5.85505368e-15</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>2.91892</v>
+        <v>2.91504</v>
       </c>
       <c r="B532" t="n">
-        <v>6.58904202e-14</v>
+        <v>4.11252624e-13</v>
       </c>
       <c r="C532" t="n">
-        <v>2.30284296e-15</v>
+        <v>9.703233899999999e-15</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>2.91946</v>
+        <v>2.91537</v>
       </c>
       <c r="B533" t="n">
-        <v>5.59182906e-14</v>
+        <v>1.58912793e-12</v>
       </c>
       <c r="C533" t="n">
-        <v>1.9767879e-15</v>
+        <v>2.3321916e-14</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>2.91991</v>
+        <v>2.91549</v>
       </c>
       <c r="B534" t="n">
-        <v>5.52547422e-14</v>
+        <v>1.7118972e-12</v>
       </c>
       <c r="C534" t="n">
-        <v>2.26316142e-15</v>
+        <v>2.01568446e-14</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>2.92043</v>
+        <v>2.91566</v>
       </c>
       <c r="B535" t="n">
-        <v>4.31452242e-14</v>
+        <v>1.473365808e-12</v>
       </c>
       <c r="C535" t="n">
-        <v>2.07446184e-15</v>
+        <v>2.66576004e-14</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>2.92084</v>
+        <v>2.91585</v>
       </c>
       <c r="B536" t="n">
-        <v>4.65135894e-14</v>
+        <v>9.75212694e-13</v>
       </c>
       <c r="C536" t="n">
-        <v>2.3926671e-15</v>
+        <v>1.84452678e-14</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>2.92143</v>
+        <v>2.91604</v>
       </c>
       <c r="B537" t="n">
-        <v>4.3786665e-14</v>
+        <v>5.772598740000001e-13</v>
       </c>
       <c r="C537" t="n">
-        <v>2.04133248e-15</v>
+        <v>1.314351288e-14</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>2.9219</v>
+        <v>2.91648</v>
       </c>
       <c r="B538" t="n">
-        <v>4.29465762e-14</v>
+        <v>2.60038242e-13</v>
       </c>
       <c r="C538" t="n">
-        <v>2.36314224e-15</v>
+        <v>6.83706366e-15</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>2.92247</v>
+        <v>2.91693</v>
       </c>
       <c r="B539" t="n">
-        <v>4.05230706e-14</v>
+        <v>2.08870362e-13</v>
       </c>
       <c r="C539" t="n">
-        <v>2.24026884e-15</v>
+        <v>5.16856464e-15</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>2.92297</v>
+        <v>2.91745</v>
       </c>
       <c r="B540" t="n">
-        <v>4.09825242e-14</v>
+        <v>1.152312192e-13</v>
       </c>
       <c r="C540" t="n">
-        <v>2.7504738e-15</v>
+        <v>2.75974938e-15</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>2.92346</v>
+        <v>2.91793</v>
       </c>
       <c r="B541" t="n">
-        <v>4.10756004e-14</v>
+        <v>9.731573280000001e-14</v>
       </c>
       <c r="C541" t="n">
-        <v>2.79702792e-15</v>
+        <v>3.96781758e-15</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>2.92583</v>
+        <v>2.9184</v>
       </c>
       <c r="B542" t="n">
-        <v>3.7914534e-14</v>
+        <v>7.9910163e-14</v>
       </c>
       <c r="C542" t="n">
-        <v>2.16362916e-15</v>
+        <v>2.3748048e-15</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>2.92979</v>
+        <v>2.91892</v>
       </c>
       <c r="B543" t="n">
-        <v>3.56696514e-14</v>
+        <v>6.58904202e-14</v>
       </c>
       <c r="C543" t="n">
-        <v>2.26873638e-15</v>
+        <v>2.30284296e-15</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>2.93966</v>
+        <v>2.91946</v>
       </c>
       <c r="B544" t="n">
-        <v>6.234070859999999e-14</v>
+        <v>5.59182906e-14</v>
       </c>
       <c r="C544" t="n">
-        <v>2.77320618e-15</v>
+        <v>1.9767879e-15</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>2.95006</v>
+        <v>2.91991</v>
       </c>
       <c r="B545" t="n">
-        <v>1.35972954e-13</v>
+        <v>5.52547422e-14</v>
       </c>
       <c r="C545" t="n">
-        <v>3.61728396e-15</v>
+        <v>2.26316142e-15</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>2.9597</v>
+        <v>2.92043</v>
       </c>
       <c r="B546" t="n">
-        <v>1.287905472e-13</v>
+        <v>4.31452242e-14</v>
       </c>
       <c r="C546" t="n">
-        <v>3.82721004e-15</v>
+        <v>2.07446184e-15</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>2.96984</v>
+        <v>2.92084</v>
       </c>
       <c r="B547" t="n">
-        <v>1.078536888e-13</v>
+        <v>4.65135894e-14</v>
       </c>
       <c r="C547" t="n">
-        <v>3.13748496e-15</v>
+        <v>2.3926671e-15</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>2.97979</v>
+        <v>2.92143</v>
       </c>
       <c r="B548" t="n">
-        <v>1.129339512e-13</v>
+        <v>4.3786665e-14</v>
       </c>
       <c r="C548" t="n">
-        <v>3.67312968e-15</v>
+        <v>2.04133248e-15</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>2.98967</v>
+        <v>2.9219</v>
       </c>
       <c r="B549" t="n">
-        <v>1.498980186e-13</v>
+        <v>4.29465762e-14</v>
       </c>
       <c r="C549" t="n">
-        <v>4.161339180000001e-15</v>
+        <v>2.36314224e-15</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>2.99885</v>
+        <v>2.92247</v>
       </c>
       <c r="B550" t="n">
-        <v>2.47191804e-13</v>
+        <v>4.05230706e-14</v>
       </c>
       <c r="C550" t="n">
-        <v>9.646298819999999e-15</v>
+        <v>2.24026884e-15</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>2.99993</v>
+        <v>2.92297</v>
       </c>
       <c r="B551" t="n">
-        <v>3.03737598e-13</v>
+        <v>4.09825242e-14</v>
       </c>
       <c r="C551" t="n">
-        <v>7.858755180000001e-15</v>
+        <v>2.7504738e-15</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>3.00403</v>
+        <v>2.92346</v>
       </c>
       <c r="B552" t="n">
-        <v>4.4880831e-13</v>
+        <v>4.10756004e-14</v>
       </c>
       <c r="C552" t="n">
-        <v>8.440633619999999e-15</v>
+        <v>2.79702792e-15</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>3.00807</v>
+        <v>2.92583</v>
       </c>
       <c r="B553" t="n">
-        <v>6.46762644e-13</v>
+        <v>3.7914534e-14</v>
       </c>
       <c r="C553" t="n">
-        <v>1.182295224e-14</v>
+        <v>2.16362916e-15</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>3.01001</v>
+        <v>2.92979</v>
       </c>
       <c r="B554" t="n">
-        <v>8.947906919999998e-13</v>
+        <v>3.56696514e-14</v>
       </c>
       <c r="C554" t="n">
-        <v>1.0932048e-14</v>
+        <v>2.26873638e-15</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>3.01128</v>
+        <v>2.93966</v>
       </c>
       <c r="B555" t="n">
-        <v>1.106627958e-12</v>
+        <v>6.234070859999999e-14</v>
       </c>
       <c r="C555" t="n">
-        <v>1.72801332e-14</v>
+        <v>2.77320618e-15</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>3.01174</v>
+        <v>2.95006</v>
       </c>
       <c r="B556" t="n">
-        <v>1.163047194e-12</v>
+        <v>1.35972954e-13</v>
       </c>
       <c r="C556" t="n">
-        <v>1.6982001e-14</v>
+        <v>3.61728396e-15</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>3.01205</v>
+        <v>2.9597</v>
       </c>
       <c r="B557" t="n">
-        <v>1.254366e-12</v>
+        <v>1.287905472e-13</v>
       </c>
       <c r="C557" t="n">
-        <v>1.80712008e-14</v>
+        <v>3.82721004e-15</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>3.01229</v>
+        <v>2.96984</v>
       </c>
       <c r="B558" t="n">
-        <v>1.334147202e-12</v>
+        <v>1.078536888e-13</v>
       </c>
       <c r="C558" t="n">
-        <v>1.6651989e-14</v>
+        <v>3.13748496e-15</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>3.01249</v>
+        <v>2.97074</v>
       </c>
       <c r="B559" t="n">
-        <v>1.350647802e-12</v>
+        <v>1.287573858e-13</v>
       </c>
       <c r="C559" t="n">
-        <v>1.8986904e-14</v>
+        <v>9.2219931e-15</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>3.01268</v>
+        <v>2.97979</v>
       </c>
       <c r="B560" t="n">
-        <v>1.424245284e-12</v>
+        <v>1.129339512e-13</v>
       </c>
       <c r="C560" t="n">
-        <v>1.6430913e-14</v>
+        <v>3.67312968e-15</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>3.01299</v>
+        <v>2.98023</v>
       </c>
       <c r="B561" t="n">
-        <v>1.431909252e-12</v>
+        <v>1.219381524e-13</v>
       </c>
       <c r="C561" t="n">
-        <v>1.84785894e-14</v>
+        <v>7.304927760000002e-15</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>3.01352</v>
+        <v>2.98967</v>
       </c>
       <c r="B562" t="n">
-        <v>1.471406562000001e-12</v>
+        <v>1.498980186e-13</v>
       </c>
       <c r="C562" t="n">
-        <v>1.77786756e-14</v>
+        <v>4.161339180000001e-15</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>3.01388</v>
+        <v>2.99092</v>
       </c>
       <c r="B563" t="n">
-        <v>1.414729404e-12</v>
+        <v>1.89263484e-13</v>
       </c>
       <c r="C563" t="n">
-        <v>1.81913508e-14</v>
+        <v>9.953786699999999e-15</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>3.01436</v>
+        <v>2.99494</v>
       </c>
       <c r="B564" t="n">
-        <v>1.28015019e-12</v>
+        <v>2.16660888e-13</v>
       </c>
       <c r="C564" t="n">
-        <v>1.63114038e-14</v>
+        <v>1.040305158e-14</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>3.01501</v>
+        <v>2.99885</v>
       </c>
       <c r="B565" t="n">
-        <v>1.063486098e-12</v>
+        <v>2.47191804e-13</v>
       </c>
       <c r="C565" t="n">
-        <v>1.83014082e-14</v>
+        <v>9.646298819999999e-15</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>3.01551</v>
+        <v>2.9989</v>
       </c>
       <c r="B566" t="n">
-        <v>9.020189160000001e-13</v>
+        <v>3.05810586e-13</v>
       </c>
       <c r="C566" t="n">
-        <v>1.253648304e-14</v>
+        <v>1.346948784e-14</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>3.01607</v>
+        <v>2.99991</v>
       </c>
       <c r="B567" t="n">
-        <v>7.82549766e-13</v>
+        <v>3.368269080000001e-13</v>
       </c>
       <c r="C567" t="n">
-        <v>1.128967848e-14</v>
+        <v>1.401238962e-14</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>3.0165</v>
+        <v>2.99993</v>
       </c>
       <c r="B568" t="n">
-        <v>6.8750631e-13</v>
+        <v>3.03737598e-13</v>
       </c>
       <c r="C568" t="n">
-        <v>1.222327602e-14</v>
+        <v>7.858755180000001e-15</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>3.01703</v>
+        <v>3.00139</v>
       </c>
       <c r="B569" t="n">
-        <v>6.113183939999999e-13</v>
+        <v>3.5312886e-13</v>
       </c>
       <c r="C569" t="n">
-        <v>9.92966058e-15</v>
+        <v>8.8170075e-15</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>3.01753</v>
+        <v>3.00252</v>
       </c>
       <c r="B570" t="n">
-        <v>5.44402854e-13</v>
+        <v>4.20186978e-13</v>
       </c>
       <c r="C570" t="n">
-        <v>8.45501958e-15</v>
+        <v>1.070153622e-14</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>3.01809</v>
+        <v>3.00336</v>
       </c>
       <c r="B571" t="n">
-        <v>4.89680136e-13</v>
+        <v>4.05507852e-13</v>
       </c>
       <c r="C571" t="n">
-        <v>8.66843802e-15</v>
+        <v>1.380360096e-14</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>3.01857</v>
+        <v>3.00403</v>
       </c>
       <c r="B572" t="n">
-        <v>4.50743526e-13</v>
+        <v>4.4880831e-13</v>
       </c>
       <c r="C572" t="n">
-        <v>1.075475466e-14</v>
+        <v>8.440633619999999e-15</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>3.01898</v>
+        <v>3.00434</v>
       </c>
       <c r="B573" t="n">
-        <v>4.19634288e-13</v>
+        <v>4.662412740000001e-13</v>
       </c>
       <c r="C573" t="n">
-        <v>1.122880248e-14</v>
+        <v>1.62840096e-14</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>3.02004</v>
+        <v>3.0055</v>
       </c>
       <c r="B574" t="n">
-        <v>3.8576961e-13</v>
+        <v>5.269442580000001e-13</v>
       </c>
       <c r="C574" t="n">
-        <v>1.144097136e-14</v>
+        <v>9.763453080000001e-15</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>3.02218</v>
+        <v>3.00638</v>
       </c>
       <c r="B575" t="n">
-        <v>3.17561256e-13</v>
+        <v>5.5884168e-13</v>
       </c>
       <c r="C575" t="n">
-        <v>1.001054556e-14</v>
+        <v>1.030121244e-14</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>3.02586</v>
+        <v>3.00754</v>
       </c>
       <c r="B576" t="n">
-        <v>2.640368340000001e-13</v>
+        <v>6.43903074e-13</v>
       </c>
       <c r="C576" t="n">
-        <v>8.972289360000001e-15</v>
+        <v>1.06927893e-14</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>3.02991</v>
+        <v>3.00807</v>
       </c>
       <c r="B577" t="n">
-        <v>2.50844364e-13</v>
+        <v>6.46762644e-13</v>
       </c>
       <c r="C577" t="n">
-        <v>8.458527959999999e-15</v>
+        <v>1.182295224e-14</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>3.03203</v>
+        <v>3.00843</v>
       </c>
       <c r="B578" t="n">
-        <v>2.60011008e-13</v>
+        <v>7.356656340000001e-13</v>
       </c>
       <c r="C578" t="n">
-        <v>6.78341268e-15</v>
+        <v>1.138624704e-14</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>3.033</v>
+        <v>3.00955</v>
       </c>
       <c r="B579" t="n">
-        <v>2.62546974e-13</v>
+        <v>8.69105826e-13</v>
       </c>
       <c r="C579" t="n">
-        <v>9.47225754e-15</v>
+        <v>1.388812248e-14</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>3.0336</v>
+        <v>3.01001</v>
       </c>
       <c r="B580" t="n">
-        <v>3.43001016e-13</v>
+        <v>8.947906919999998e-13</v>
       </c>
       <c r="C580" t="n">
-        <v>1.014897438e-14</v>
+        <v>1.0932048e-14</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>3.03399</v>
+        <v>3.01047</v>
       </c>
       <c r="B581" t="n">
-        <v>4.4293698e-13</v>
+        <v>1.06026768e-12</v>
       </c>
       <c r="C581" t="n">
-        <v>8.80462404e-15</v>
+        <v>1.329666408e-14</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>3.03432</v>
+        <v>3.01128</v>
       </c>
       <c r="B582" t="n">
-        <v>6.1867638e-13</v>
+        <v>1.106627958e-12</v>
       </c>
       <c r="C582" t="n">
-        <v>9.347381639999999e-15</v>
+        <v>1.72801332e-14</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>3.03452</v>
+        <v>3.01174</v>
       </c>
       <c r="B583" t="n">
-        <v>9.29558898e-13</v>
+        <v>1.163047194e-12</v>
       </c>
       <c r="C583" t="n">
-        <v>1.444081248e-14</v>
+        <v>1.6982001e-14</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>3.03483</v>
+        <v>3.01205</v>
       </c>
       <c r="B584" t="n">
-        <v>1.7706105e-12</v>
+        <v>1.254366e-12</v>
       </c>
       <c r="C584" t="n">
-        <v>2.32624818e-14</v>
+        <v>1.80712008e-14</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>3.03505</v>
+        <v>3.01229</v>
       </c>
       <c r="B585" t="n">
-        <v>2.36666664e-12</v>
+        <v>1.334147202e-12</v>
       </c>
       <c r="C585" t="n">
-        <v>2.6678907e-14</v>
+        <v>1.6651989e-14</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>3.03594</v>
+        <v>3.01249</v>
       </c>
       <c r="B586" t="n">
-        <v>9.945824760000002e-13</v>
+        <v>1.350647802e-12</v>
       </c>
       <c r="C586" t="n">
-        <v>1.68028974e-14</v>
+        <v>1.8986904e-14</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>3.03698</v>
+        <v>3.01268</v>
       </c>
       <c r="B587" t="n">
-        <v>4.39883568e-13</v>
+        <v>1.424245284e-12</v>
       </c>
       <c r="C587" t="n">
-        <v>1.146309498e-14</v>
+        <v>1.6430913e-14</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>3.03799</v>
+        <v>3.01299</v>
       </c>
       <c r="B588" t="n">
-        <v>3.83643756e-13</v>
+        <v>1.431909252e-12</v>
       </c>
       <c r="C588" t="n">
-        <v>1.162853352e-14</v>
+        <v>1.84785894e-14</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>3.03898</v>
+        <v>3.01352</v>
       </c>
       <c r="B589" t="n">
-        <v>3.57167502e-13</v>
+        <v>1.471406562000001e-12</v>
       </c>
       <c r="C589" t="n">
-        <v>1.133200332e-14</v>
+        <v>1.77786756e-14</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>3.04002</v>
+        <v>3.01388</v>
       </c>
       <c r="B590" t="n">
-        <v>3.7487601e-13</v>
+        <v>1.414729404e-12</v>
       </c>
       <c r="C590" t="n">
-        <v>8.65773666e-15</v>
+        <v>1.81913508e-14</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>3.04202</v>
+        <v>3.01436</v>
       </c>
       <c r="B591" t="n">
-        <v>3.75169176e-13</v>
+        <v>1.28015019e-12</v>
       </c>
       <c r="C591" t="n">
-        <v>1.070661456e-14</v>
+        <v>1.63114038e-14</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>3.04591</v>
+        <v>3.01441</v>
       </c>
       <c r="B592" t="n">
-        <v>3.49144686e-13</v>
+        <v>9.59352894e-13</v>
       </c>
       <c r="C592" t="n">
-        <v>1.130292702e-14</v>
+        <v>1.7686881e-14</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>3.05</v>
+        <v>3.01501</v>
       </c>
       <c r="B593" t="n">
-        <v>2.68296552e-13</v>
+        <v>1.063486098e-12</v>
       </c>
       <c r="C593" t="n">
-        <v>9.650800439999998e-15</v>
+        <v>1.83014082e-14</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>3.05401</v>
+        <v>3.01551</v>
       </c>
       <c r="B594" t="n">
-        <v>2.23225884e-13</v>
+        <v>9.020189160000001e-13</v>
       </c>
       <c r="C594" t="n">
-        <v>8.85675312e-15</v>
+        <v>1.253648304e-14</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>3.05801</v>
+        <v>3.01607</v>
       </c>
       <c r="B595" t="n">
-        <v>2.20677102e-13</v>
+        <v>7.82549766e-13</v>
       </c>
       <c r="C595" t="n">
-        <v>9.024178139999999e-15</v>
+        <v>1.128967848e-14</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>3.05997</v>
+        <v>3.0165</v>
       </c>
       <c r="B596" t="n">
-        <v>2.51485164e-13</v>
+        <v>6.8750631e-13</v>
       </c>
       <c r="C596" t="n">
-        <v>9.124174980000001e-15</v>
+        <v>1.222327602e-14</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>3.06048</v>
+        <v>3.01703</v>
       </c>
       <c r="B597" t="n">
-        <v>2.752940880000001e-13</v>
+        <v>6.113183939999999e-13</v>
       </c>
       <c r="C597" t="n">
-        <v>1.085348592e-14</v>
+        <v>9.92966058e-15</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>3.06096</v>
+        <v>3.01753</v>
       </c>
       <c r="B598" t="n">
-        <v>2.61957438e-13</v>
+        <v>5.44402854e-13</v>
       </c>
       <c r="C598" t="n">
-        <v>1.13416794e-14</v>
+        <v>8.45501958e-15</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>3.0613</v>
+        <v>3.01809</v>
       </c>
       <c r="B599" t="n">
-        <v>2.78640666e-13</v>
+        <v>4.89680136e-13</v>
       </c>
       <c r="C599" t="n">
-        <v>1.125033336e-14</v>
+        <v>8.66843802e-15</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>3.06147</v>
+        <v>3.01852</v>
       </c>
       <c r="B600" t="n">
-        <v>2.94377112e-13</v>
+        <v>4.08042216e-13</v>
       </c>
       <c r="C600" t="n">
-        <v>1.17974484e-14</v>
+        <v>1.19794356e-14</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>3.06178</v>
+        <v>3.01857</v>
       </c>
       <c r="B601" t="n">
-        <v>2.69333046e-13</v>
+        <v>4.50743526e-13</v>
       </c>
       <c r="C601" t="n">
-        <v>1.110596112e-14</v>
+        <v>1.075475466e-14</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>3.062</v>
+        <v>3.01898</v>
       </c>
       <c r="B602" t="n">
-        <v>3.08011734e-13</v>
+        <v>4.19634288e-13</v>
       </c>
       <c r="C602" t="n">
-        <v>1.180707642e-14</v>
+        <v>1.122880248e-14</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>3.06227</v>
+        <v>3.02004</v>
       </c>
       <c r="B603" t="n">
-        <v>2.83392198e-13</v>
+        <v>3.8576961e-13</v>
       </c>
       <c r="C603" t="n">
-        <v>1.132883136e-14</v>
+        <v>1.144097136e-14</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>3.06258</v>
+        <v>3.02218</v>
       </c>
       <c r="B604" t="n">
-        <v>3.0425985e-13</v>
+        <v>3.17561256e-13</v>
       </c>
       <c r="C604" t="n">
-        <v>1.055182932e-14</v>
+        <v>1.001054556e-14</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>3.0628</v>
+        <v>3.02247</v>
       </c>
       <c r="B605" t="n">
-        <v>3.27823668e-13</v>
+        <v>2.90019672e-13</v>
       </c>
       <c r="C605" t="n">
-        <v>1.115924364e-14</v>
+        <v>7.97642208e-15</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>3.06312</v>
+        <v>3.02586</v>
       </c>
       <c r="B606" t="n">
-        <v>3.1083606e-13</v>
+        <v>2.640368340000001e-13</v>
       </c>
       <c r="C606" t="n">
-        <v>1.185510438e-14</v>
+        <v>8.972289360000001e-15</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>3.06324</v>
+        <v>3.02634</v>
       </c>
       <c r="B607" t="n">
-        <v>3.16212372e-13</v>
+        <v>2.57907582e-13</v>
       </c>
       <c r="C607" t="n">
-        <v>1.188991584e-14</v>
+        <v>9.61132716e-15</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>3.06353</v>
+        <v>3.02991</v>
       </c>
       <c r="B608" t="n">
-        <v>3.29510574e-13</v>
+        <v>2.50844364e-13</v>
       </c>
       <c r="C608" t="n">
-        <v>7.07922198e-15</v>
+        <v>8.458527959999999e-15</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>3.06375</v>
+        <v>3.03034</v>
       </c>
       <c r="B609" t="n">
-        <v>3.39893136e-13</v>
+        <v>2.3117661e-13</v>
       </c>
       <c r="C609" t="n">
-        <v>6.4255419e-15</v>
+        <v>8.091910260000002e-15</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>3.06404</v>
+        <v>3.03203</v>
       </c>
       <c r="B610" t="n">
-        <v>3.40838316e-13</v>
+        <v>2.60011008e-13</v>
       </c>
       <c r="C610" t="n">
-        <v>6.921088560000002e-15</v>
+        <v>6.78341268e-15</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>3.06418</v>
+        <v>3.03244</v>
       </c>
       <c r="B611" t="n">
-        <v>3.36560976e-13</v>
+        <v>3.0250566e-13</v>
       </c>
       <c r="C611" t="n">
-        <v>7.247239740000001e-15</v>
+        <v>9.039461220000001e-15</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>3.06445</v>
+        <v>3.033</v>
       </c>
       <c r="B612" t="n">
-        <v>3.16934874e-13</v>
+        <v>2.62546974e-13</v>
       </c>
       <c r="C612" t="n">
-        <v>8.199052019999999e-15</v>
+        <v>9.47225754e-15</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>3.06481</v>
+        <v>3.0335</v>
       </c>
       <c r="B613" t="n">
-        <v>3.09278916e-13</v>
+        <v>5.514516540000001e-13</v>
       </c>
       <c r="C613" t="n">
-        <v>6.698522699999999e-15</v>
+        <v>1.124858718e-14</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>3.06498</v>
+        <v>3.0336</v>
       </c>
       <c r="B614" t="n">
-        <v>3.05305956e-13</v>
+        <v>3.43001016e-13</v>
       </c>
       <c r="C614" t="n">
-        <v>6.98885316e-15</v>
+        <v>1.014897438e-14</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>3.06532</v>
+        <v>3.03367</v>
       </c>
       <c r="B615" t="n">
-        <v>2.902824e-13</v>
+        <v>7.94644866e-13</v>
       </c>
       <c r="C615" t="n">
-        <v>6.815196360000001e-15</v>
+        <v>1.353613104e-14</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>3.06547</v>
+        <v>3.03399</v>
       </c>
       <c r="B616" t="n">
-        <v>2.97398484e-13</v>
+        <v>4.4293698e-13</v>
       </c>
       <c r="C616" t="n">
-        <v>7.11299214e-15</v>
+        <v>8.80462404e-15</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>3.06583</v>
+        <v>3.03401</v>
       </c>
       <c r="B617" t="n">
-        <v>2.8446714e-13</v>
+        <v>2.34640134e-12</v>
       </c>
       <c r="C617" t="n">
-        <v>7.115923800000001e-15</v>
+        <v>2.28866526e-14</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>3.06603</v>
+        <v>3.03423</v>
       </c>
       <c r="B618" t="n">
-        <v>2.656708740000001e-13</v>
+        <v>1.249529562e-12</v>
       </c>
       <c r="C618" t="n">
-        <v>6.5519397e-15</v>
+        <v>1.302411582e-14</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>3.0662</v>
+        <v>3.03432</v>
       </c>
       <c r="B619" t="n">
-        <v>2.671815599999999e-13</v>
+        <v>6.1867638e-13</v>
       </c>
       <c r="C619" t="n">
-        <v>7.428474e-15</v>
+        <v>9.347381639999999e-15</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>3.06658</v>
+        <v>3.03444</v>
       </c>
       <c r="B620" t="n">
-        <v>2.564001000000001e-13</v>
+        <v>1.9951308e-12</v>
       </c>
       <c r="C620" t="n">
-        <v>6.13200744e-15</v>
+        <v>1.383789978e-14</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>3.06707</v>
+        <v>3.03452</v>
       </c>
       <c r="B621" t="n">
-        <v>2.56081302e-13</v>
+        <v>9.29558898e-13</v>
       </c>
       <c r="C621" t="n">
-        <v>6.82274178e-15</v>
+        <v>1.444081248e-14</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>3.06758</v>
+        <v>3.03483</v>
       </c>
       <c r="B622" t="n">
-        <v>2.47327974e-13</v>
+        <v>1.7706105e-12</v>
       </c>
       <c r="C622" t="n">
-        <v>7.05645756e-15</v>
+        <v>2.32624818e-14</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>3.06787</v>
+        <v>3.03488</v>
       </c>
       <c r="B623" t="n">
-        <v>2.516934239999999e-13</v>
+        <v>1.227961836e-12</v>
       </c>
       <c r="C623" t="n">
-        <v>7.10096112e-15</v>
+        <v>1.395619146e-14</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>3.06913</v>
+        <v>3.03505</v>
       </c>
       <c r="B624" t="n">
-        <v>2.7977328e-13</v>
+        <v>2.36666664e-12</v>
       </c>
       <c r="C624" t="n">
-        <v>7.373205e-15</v>
+        <v>2.6678907e-14</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>3.06998</v>
+        <v>3.03594</v>
       </c>
       <c r="B625" t="n">
-        <v>3.21872238e-13</v>
+        <v>9.945824760000002e-13</v>
       </c>
       <c r="C625" t="n">
-        <v>7.37006508e-15</v>
+        <v>1.68028974e-14</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>3.07095</v>
+        <v>3.03698</v>
       </c>
       <c r="B626" t="n">
-        <v>3.8947824e-13</v>
+        <v>4.39883568e-13</v>
       </c>
       <c r="C626" t="n">
-        <v>7.214831280000001e-15</v>
+        <v>1.146309498e-14</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>3.07209</v>
+        <v>3.03799</v>
       </c>
       <c r="B627" t="n">
-        <v>7.565060520000001e-13</v>
+        <v>3.83643756e-13</v>
       </c>
       <c r="C627" t="n">
-        <v>1.08897552e-14</v>
+        <v>1.162853352e-14</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>3.07245</v>
+        <v>3.03879</v>
       </c>
       <c r="B628" t="n">
-        <v>1.082905542e-12</v>
+        <v>3.50719452e-13</v>
       </c>
       <c r="C628" t="n">
-        <v>1.13265405e-14</v>
+        <v>8.38587726e-15</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>3.07279</v>
+        <v>3.03898</v>
       </c>
       <c r="B629" t="n">
-        <v>1.88089218e-12</v>
+        <v>3.57167502e-13</v>
       </c>
       <c r="C629" t="n">
-        <v>1.6742502e-14</v>
+        <v>1.133200332e-14</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>3.07309</v>
+        <v>3.04002</v>
       </c>
       <c r="B630" t="n">
-        <v>3.14362062e-12</v>
+        <v>3.7487601e-13</v>
       </c>
       <c r="C630" t="n">
-        <v>2.29369554e-14</v>
+        <v>8.65773666e-15</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>3.07328</v>
+        <v>3.04202</v>
       </c>
       <c r="B631" t="n">
-        <v>4.3906815e-12</v>
+        <v>3.75169176e-13</v>
       </c>
       <c r="C631" t="n">
-        <v>2.36890944e-14</v>
+        <v>1.070661456e-14</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>3.07362</v>
+        <v>3.04296</v>
       </c>
       <c r="B632" t="n">
-        <v>4.516086060000001e-12</v>
+        <v>3.71409282e-13</v>
       </c>
       <c r="C632" t="n">
-        <v>2.51707842e-14</v>
+        <v>8.77404186e-15</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>3.07384</v>
+        <v>3.04591</v>
       </c>
       <c r="B633" t="n">
-        <v>3.66117876e-12</v>
+        <v>3.49144686e-13</v>
       </c>
       <c r="C633" t="n">
-        <v>2.49461838e-14</v>
+        <v>1.130292702e-14</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>3.07401</v>
+        <v>3.04695</v>
       </c>
       <c r="B634" t="n">
-        <v>2.87041554e-12</v>
+        <v>2.98736154e-13</v>
       </c>
       <c r="C634" t="n">
-        <v>2.0701845e-14</v>
+        <v>8.49418848e-15</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>3.0743</v>
+        <v>3.04891</v>
       </c>
       <c r="B635" t="n">
-        <v>1.90871892e-12</v>
+        <v>2.55007962e-13</v>
       </c>
       <c r="C635" t="n">
-        <v>1.82961216e-14</v>
+        <v>8.102034900000001e-15</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>3.07452</v>
+        <v>3.05</v>
       </c>
       <c r="B636" t="n">
-        <v>1.464228e-12</v>
+        <v>2.68296552e-13</v>
       </c>
       <c r="C636" t="n">
-        <v>1.6317171e-14</v>
+        <v>9.650800439999998e-15</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>3.07505</v>
+        <v>3.0529</v>
       </c>
       <c r="B637" t="n">
-        <v>8.86646124e-13</v>
+        <v>2.20377528e-13</v>
       </c>
       <c r="C637" t="n">
-        <v>1.237158918e-14</v>
+        <v>7.85290788e-15</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>3.07537</v>
+        <v>3.05401</v>
       </c>
       <c r="B638" t="n">
-        <v>7.165089179999999e-13</v>
+        <v>2.23225884e-13</v>
       </c>
       <c r="C638" t="n">
-        <v>1.254633534e-14</v>
+        <v>8.85675312e-15</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>3.07593</v>
+        <v>3.05694</v>
       </c>
       <c r="B639" t="n">
-        <v>5.597580239999999e-13</v>
+        <v>2.23132968e-13</v>
       </c>
       <c r="C639" t="n">
-        <v>1.08632421e-14</v>
+        <v>8.393470739999999e-15</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>3.07644</v>
+        <v>3.05801</v>
       </c>
       <c r="B640" t="n">
-        <v>4.73926068e-13</v>
+        <v>2.20677102e-13</v>
       </c>
       <c r="C640" t="n">
-        <v>1.010937294e-14</v>
+        <v>9.024178139999999e-15</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>3.07697</v>
+        <v>3.05997</v>
       </c>
       <c r="B641" t="n">
-        <v>4.20273486e-13</v>
+        <v>2.51485164e-13</v>
       </c>
       <c r="C641" t="n">
-        <v>9.872757539999999e-15</v>
+        <v>9.124174980000001e-15</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>3.07801</v>
+        <v>3.06048</v>
       </c>
       <c r="B642" t="n">
-        <v>3.83051016e-13</v>
+        <v>2.752940880000001e-13</v>
       </c>
       <c r="C642" t="n">
-        <v>7.89290982e-15</v>
+        <v>1.085348592e-14</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>3.08001</v>
+        <v>3.06094</v>
       </c>
       <c r="B643" t="n">
-        <v>3.27458412e-13</v>
+        <v>2.9994246e-13</v>
       </c>
       <c r="C643" t="n">
-        <v>1.149548742e-14</v>
+        <v>7.7479128e-15</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>3.08205</v>
+        <v>3.06096</v>
       </c>
       <c r="B644" t="n">
-        <v>3.37743252e-13</v>
+        <v>2.61957438e-13</v>
       </c>
       <c r="C644" t="n">
-        <v>9.278191260000002e-15</v>
+        <v>1.13416794e-14</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>3.0829</v>
+        <v>3.0613</v>
       </c>
       <c r="B645" t="n">
-        <v>3.45106044e-13</v>
+        <v>2.78640666e-13</v>
       </c>
       <c r="C645" t="n">
-        <v>9.027782639999999e-15</v>
+        <v>1.125033336e-14</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>3.08356</v>
+        <v>3.06147</v>
       </c>
       <c r="B646" t="n">
-        <v>3.36931038e-13</v>
+        <v>2.94377112e-13</v>
       </c>
       <c r="C646" t="n">
-        <v>9.092199060000001e-15</v>
+        <v>1.17974484e-14</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>3.08506</v>
+        <v>3.06178</v>
       </c>
       <c r="B647" t="n">
-        <v>3.41357364e-13</v>
+        <v>2.69333046e-13</v>
       </c>
       <c r="C647" t="n">
-        <v>9.319683060000002e-15</v>
+        <v>1.110596112e-14</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>3.08604</v>
+        <v>3.062</v>
       </c>
       <c r="B648" t="n">
-        <v>3.3163803e-13</v>
+        <v>3.08011734e-13</v>
       </c>
       <c r="C648" t="n">
-        <v>9.88925814e-15</v>
+        <v>1.180707642e-14</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>3.08798</v>
+        <v>3.06227</v>
       </c>
       <c r="B649" t="n">
-        <v>3.31730946e-13</v>
+        <v>2.83392198e-13</v>
       </c>
       <c r="C649" t="n">
-        <v>8.22192858e-15</v>
+        <v>1.132883136e-14</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>3.08898</v>
+        <v>3.06258</v>
       </c>
       <c r="B650" t="n">
-        <v>3.05331588e-13</v>
+        <v>3.0425985e-13</v>
       </c>
       <c r="C650" t="n">
-        <v>8.114306219999999e-15</v>
+        <v>1.055182932e-14</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>3.08998</v>
+        <v>3.0628</v>
       </c>
       <c r="B651" t="n">
-        <v>3.17543634e-13</v>
+        <v>3.27823668e-13</v>
       </c>
       <c r="C651" t="n">
-        <v>8.356544639999999e-15</v>
+        <v>1.115924364e-14</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>3.09102</v>
+        <v>3.06292</v>
       </c>
       <c r="B652" t="n">
-        <v>3.12210576e-13</v>
+        <v>3.31094952e-13</v>
       </c>
       <c r="C652" t="n">
-        <v>8.2021599e-15</v>
+        <v>8.20525176e-15</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>3.09197</v>
+        <v>3.06312</v>
       </c>
       <c r="B653" t="n">
-        <v>3.3014016e-13</v>
+        <v>3.1083606e-13</v>
       </c>
       <c r="C653" t="n">
-        <v>9.107001539999999e-15</v>
+        <v>1.185510438e-14</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>3.09305</v>
+        <v>3.06324</v>
       </c>
       <c r="B654" t="n">
-        <v>3.15845514e-13</v>
+        <v>3.16212372e-13</v>
       </c>
       <c r="C654" t="n">
-        <v>8.39329452e-15</v>
+        <v>1.188991584e-14</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>3.09412</v>
+        <v>3.06353</v>
       </c>
       <c r="B655" t="n">
-        <v>3.09844422e-13</v>
+        <v>3.29510574e-13</v>
       </c>
       <c r="C655" t="n">
-        <v>8.54013384e-15</v>
+        <v>7.07922198e-15</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>3.09509</v>
+        <v>3.06375</v>
       </c>
       <c r="B656" t="n">
-        <v>3.46387644e-13</v>
+        <v>3.39893136e-13</v>
       </c>
       <c r="C656" t="n">
-        <v>8.61328116e-15</v>
+        <v>6.4255419e-15</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>3.09597</v>
+        <v>3.06389</v>
       </c>
       <c r="B657" t="n">
-        <v>3.388854780000001e-13</v>
+        <v>3.02125986e-13</v>
       </c>
       <c r="C657" t="n">
-        <v>1.164596328e-14</v>
+        <v>9.013893299999999e-15</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>3.09799</v>
+        <v>3.06404</v>
       </c>
       <c r="B658" t="n">
-        <v>3.55349232e-13</v>
+        <v>3.40838316e-13</v>
       </c>
       <c r="C658" t="n">
-        <v>9.12089088e-15</v>
+        <v>6.921088560000002e-15</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>3.0996</v>
+        <v>3.06418</v>
       </c>
       <c r="B659" t="n">
-        <v>3.6883647e-13</v>
+        <v>3.36560976e-13</v>
       </c>
       <c r="C659" t="n">
-        <v>1.13868558e-14</v>
+        <v>7.247239740000001e-15</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>3.09994</v>
+        <v>3.06445</v>
       </c>
       <c r="B660" t="n">
-        <v>3.98574396e-13</v>
+        <v>3.16934874e-13</v>
       </c>
       <c r="C660" t="n">
-        <v>8.28439056e-15</v>
+        <v>8.199052019999999e-15</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>3.10065</v>
+        <v>3.06455</v>
       </c>
       <c r="B661" t="n">
-        <v>4.779262619999999e-13</v>
+        <v>2.81424942e-13</v>
       </c>
       <c r="C661" t="n">
-        <v>1.133378154e-14</v>
+        <v>1.010338146e-14</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>3.10126</v>
+        <v>3.06481</v>
       </c>
       <c r="B662" t="n">
-        <v>6.52957578e-13</v>
+        <v>3.09278916e-13</v>
       </c>
       <c r="C662" t="n">
-        <v>1.181415726e-14</v>
+        <v>6.698522699999999e-15</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>3.10145</v>
+        <v>3.06486</v>
       </c>
       <c r="B663" t="n">
-        <v>7.4241486e-13</v>
+        <v>2.87961102e-13</v>
       </c>
       <c r="C663" t="n">
-        <v>1.345202604e-14</v>
+        <v>9.754081380000001e-15</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>3.10175</v>
+        <v>3.06498</v>
       </c>
       <c r="B664" t="n">
-        <v>9.859412880000001e-13</v>
+        <v>3.05305956e-13</v>
       </c>
       <c r="C664" t="n">
-        <v>1.338597558e-14</v>
+        <v>6.98885316e-15</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>3.10211</v>
+        <v>3.06532</v>
       </c>
       <c r="B665" t="n">
-        <v>1.519935948e-12</v>
+        <v>2.902824e-13</v>
       </c>
       <c r="C665" t="n">
-        <v>1.80098442e-14</v>
+        <v>6.815196360000001e-15</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>3.10231</v>
+        <v>3.06547</v>
       </c>
       <c r="B666" t="n">
-        <v>1.79289432e-12</v>
+        <v>2.97398484e-13</v>
       </c>
       <c r="C666" t="n">
-        <v>1.95669882e-14</v>
+        <v>7.11299214e-15</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>3.10248</v>
+        <v>3.06583</v>
       </c>
       <c r="B667" t="n">
-        <v>1.92145482e-12</v>
+        <v>2.8446714e-13</v>
       </c>
       <c r="C667" t="n">
-        <v>2.01885642e-14</v>
+        <v>7.115923800000001e-15</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>3.10267</v>
+        <v>3.06603</v>
       </c>
       <c r="B668" t="n">
-        <v>1.79009082e-12</v>
+        <v>2.656708740000001e-13</v>
       </c>
       <c r="C668" t="n">
-        <v>2.07582354e-14</v>
+        <v>6.5519397e-15</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>3.10301</v>
+        <v>3.0662</v>
       </c>
       <c r="B669" t="n">
-        <v>1.54238958e-12</v>
+        <v>2.671815599999999e-13</v>
       </c>
       <c r="C669" t="n">
-        <v>1.96067178e-14</v>
+        <v>7.428474e-15</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>3.10353</v>
+        <v>3.06658</v>
       </c>
       <c r="B670" t="n">
-        <v>9.42515874e-13</v>
+        <v>2.564001000000001e-13</v>
       </c>
       <c r="C670" t="n">
-        <v>1.420466166e-14</v>
+        <v>6.13200744e-15</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>3.10401</v>
+        <v>3.06707</v>
       </c>
       <c r="B671" t="n">
-        <v>6.44361246e-13</v>
+        <v>2.56081302e-13</v>
       </c>
       <c r="C671" t="n">
-        <v>1.201471164e-14</v>
+        <v>6.82274178e-15</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>3.10453</v>
+        <v>3.06758</v>
       </c>
       <c r="B672" t="n">
-        <v>5.12774568e-13</v>
+        <v>2.47327974e-13</v>
       </c>
       <c r="C672" t="n">
-        <v>1.101857202e-14</v>
+        <v>7.05645756e-15</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>3.10506</v>
+        <v>3.06787</v>
       </c>
       <c r="B673" t="n">
-        <v>4.532602680000001e-13</v>
+        <v>2.516934239999999e-13</v>
       </c>
       <c r="C673" t="n">
-        <v>9.21880512e-15</v>
+        <v>7.10096112e-15</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>3.10538</v>
+        <v>3.06913</v>
       </c>
       <c r="B674" t="n">
-        <v>4.24214406e-13</v>
+        <v>2.7977328e-13</v>
       </c>
       <c r="C674" t="n">
-        <v>9.49963572e-15</v>
+        <v>7.373205e-15</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>3.10592</v>
+        <v>3.06998</v>
       </c>
       <c r="B675" t="n">
-        <v>4.08721464e-13</v>
+        <v>3.21872238e-13</v>
       </c>
       <c r="C675" t="n">
-        <v>9.49622346e-15</v>
+        <v>7.37006508e-15</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>3.10658</v>
+        <v>3.07042</v>
       </c>
       <c r="B676" t="n">
-        <v>3.74976936e-13</v>
+        <v>4.2831072e-13</v>
       </c>
       <c r="C676" t="n">
-        <v>9.993276e-15</v>
+        <v>1.028466378e-14</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>3.10709</v>
+        <v>3.07095</v>
       </c>
       <c r="B677" t="n">
-        <v>3.642948e-13</v>
+        <v>3.8947824e-13</v>
       </c>
       <c r="C677" t="n">
-        <v>1.048742892e-14</v>
+        <v>7.214831280000001e-15</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>3.10745</v>
+        <v>3.07097</v>
       </c>
       <c r="B678" t="n">
-        <v>3.59668224e-13</v>
+        <v>5.88328092e-13</v>
       </c>
       <c r="C678" t="n">
-        <v>1.052196804e-14</v>
+        <v>1.17787851e-14</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>3.10784</v>
+        <v>3.07192</v>
       </c>
       <c r="B679" t="n">
-        <v>3.34504008e-13</v>
+        <v>1.84954104e-12</v>
       </c>
       <c r="C679" t="n">
-        <v>1.058763402e-14</v>
+        <v>3.155411340000001e-14</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>3.112</v>
+        <v>3.07204</v>
       </c>
       <c r="B680" t="n">
-        <v>3.9349125e-13</v>
+        <v>2.5221888e-12</v>
       </c>
       <c r="C680" t="n">
-        <v>1.167060204e-14</v>
+        <v>3.07611234e-14</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>3.11559</v>
+        <v>3.07209</v>
       </c>
       <c r="B681" t="n">
-        <v>4.19554188e-13</v>
+        <v>7.565060520000001e-13</v>
       </c>
       <c r="C681" t="n">
-        <v>1.170542952e-14</v>
+        <v>1.08897552e-14</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
-        <v>3.12001</v>
+        <v>3.07241</v>
       </c>
       <c r="B682" t="n">
-        <v>4.43159658e-13</v>
+        <v>4.14046512e-12</v>
       </c>
       <c r="C682" t="n">
-        <v>1.15488981e-14</v>
+        <v>5.48186778e-14</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
-        <v>3.124</v>
+        <v>3.07245</v>
       </c>
       <c r="B683" t="n">
-        <v>4.70677212e-13</v>
+        <v>1.082905542e-12</v>
       </c>
       <c r="C683" t="n">
-        <v>1.1353374e-14</v>
+        <v>1.13265405e-14</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
-        <v>3.1349</v>
+        <v>3.0726</v>
       </c>
       <c r="B684" t="n">
-        <v>4.07721816e-13</v>
+        <v>4.69432458e-12</v>
       </c>
       <c r="C684" t="n">
-        <v>8.4356514e-15</v>
+        <v>3.43795608e-14</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
-        <v>3.13895</v>
+        <v>3.07279</v>
       </c>
       <c r="B685" t="n">
-        <v>3.46642362e-13</v>
+        <v>1.88089218e-12</v>
       </c>
       <c r="C685" t="n">
-        <v>8.34520248e-15</v>
+        <v>1.6742502e-14</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
-        <v>3.14273</v>
+        <v>3.07292</v>
       </c>
       <c r="B686" t="n">
-        <v>3.2148936e-13</v>
+        <v>3.97068516e-12</v>
       </c>
       <c r="C686" t="n">
-        <v>7.90141644e-15</v>
+        <v>3.03391566e-14</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
-        <v>3.14764</v>
+        <v>3.07309</v>
       </c>
       <c r="B687" t="n">
-        <v>2.754863280000001e-13</v>
+        <v>3.30510222e-12</v>
       </c>
       <c r="C687" t="n">
-        <v>9.4965759e-15</v>
+        <v>2.9627388e-14</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
-        <v>3.15204</v>
+        <v>3.07309</v>
       </c>
       <c r="B688" t="n">
-        <v>2.20214124e-13</v>
+        <v>3.14362062e-12</v>
       </c>
       <c r="C688" t="n">
-        <v>8.845314839999999e-15</v>
+        <v>2.29369554e-14</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
-        <v>3.157</v>
+        <v>3.07328</v>
       </c>
       <c r="B689" t="n">
-        <v>2.07165834e-13</v>
+        <v>4.3906815e-12</v>
       </c>
       <c r="C689" t="n">
-        <v>7.125055199999999e-15</v>
+        <v>2.36890944e-14</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
-        <v>3.15782</v>
+        <v>3.0734</v>
       </c>
       <c r="B690" t="n">
-        <v>2.21703984e-13</v>
+        <v>2.88188586e-12</v>
       </c>
       <c r="C690" t="n">
-        <v>8.142837839999999e-15</v>
+        <v>3.0003858e-14</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
-        <v>3.15836</v>
+        <v>3.07362</v>
       </c>
       <c r="B691" t="n">
-        <v>2.28273786e-13</v>
+        <v>4.516086060000001e-12</v>
       </c>
       <c r="C691" t="n">
-        <v>6.0460281e-15</v>
+        <v>2.51707842e-14</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
-        <v>3.15887</v>
+        <v>3.07374</v>
       </c>
       <c r="B692" t="n">
-        <v>2.38971942e-13</v>
+        <v>2.12891382e-12</v>
       </c>
       <c r="C692" t="n">
-        <v>7.75851804e-15</v>
+        <v>2.5088121e-14</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
-        <v>3.15981</v>
+        <v>3.07384</v>
       </c>
       <c r="B693" t="n">
-        <v>3.1157298e-13</v>
+        <v>3.66117876e-12</v>
       </c>
       <c r="C693" t="n">
-        <v>1.029043098e-14</v>
+        <v>2.49461838e-14</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
-        <v>3.16087</v>
+        <v>3.07398</v>
       </c>
       <c r="B694" t="n">
-        <v>8.790478380000002e-13</v>
+        <v>1.424854044e-12</v>
       </c>
       <c r="C694" t="n">
-        <v>1.258236432e-14</v>
+        <v>1.530372978e-14</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
-        <v>3.16166</v>
+        <v>3.07401</v>
       </c>
       <c r="B695" t="n">
-        <v>3.45131676e-13</v>
+        <v>2.87041554e-12</v>
       </c>
       <c r="C695" t="n">
-        <v>5.94274716e-15</v>
+        <v>2.0701845e-14</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
-        <v>3.16249</v>
+        <v>3.0743</v>
       </c>
       <c r="B696" t="n">
-        <v>2.8236051e-13</v>
+        <v>1.90871892e-12</v>
       </c>
       <c r="C696" t="n">
-        <v>7.42065624e-15</v>
+        <v>1.82961216e-14</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
-        <v>3.16316</v>
+        <v>3.07452</v>
       </c>
       <c r="B697" t="n">
-        <v>2.63025972e-13</v>
+        <v>1.464228e-12</v>
       </c>
       <c r="C697" t="n">
-        <v>6.8504724e-15</v>
+        <v>1.6317171e-14</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
-        <v>3.16392</v>
+        <v>3.07452</v>
       </c>
       <c r="B698" t="n">
-        <v>2.53446012e-13</v>
+        <v>8.99832186e-13</v>
       </c>
       <c r="C698" t="n">
-        <v>5.73426288e-15</v>
+        <v>1.507227282e-14</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
-        <v>3.16525</v>
+        <v>3.07491</v>
       </c>
       <c r="B699" t="n">
-        <v>2.56190238e-13</v>
+        <v>7.00504938e-13</v>
       </c>
       <c r="C699" t="n">
-        <v>5.44454118e-15</v>
+        <v>1.36804392e-14</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
-        <v>3.16661</v>
+        <v>3.07505</v>
       </c>
       <c r="B700" t="n">
-        <v>2.672728740000001e-13</v>
+        <v>8.86646124e-13</v>
       </c>
       <c r="C700" t="n">
-        <v>7.92275508e-15</v>
+        <v>1.237158918e-14</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
-        <v>3.16764</v>
+        <v>3.07537</v>
       </c>
       <c r="B701" t="n">
-        <v>2.85862482e-13</v>
+        <v>7.165089179999999e-13</v>
       </c>
       <c r="C701" t="n">
-        <v>7.74707976e-15</v>
+        <v>1.254633534e-14</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
-        <v>3.1689</v>
+        <v>3.0759</v>
       </c>
       <c r="B702" t="n">
-        <v>3.11427198e-13</v>
+        <v>4.43656278e-13</v>
       </c>
       <c r="C702" t="n">
-        <v>7.717378679999999e-15</v>
+        <v>1.037314224e-14</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
-        <v>3.17043</v>
+        <v>3.07593</v>
       </c>
       <c r="B703" t="n">
-        <v>3.86653914e-13</v>
+        <v>5.597580239999999e-13</v>
       </c>
       <c r="C703" t="n">
-        <v>8.8560963e-15</v>
+        <v>1.08632421e-14</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
-        <v>3.17279</v>
+        <v>3.07644</v>
       </c>
       <c r="B704" t="n">
-        <v>5.5534131e-13</v>
+        <v>4.73926068e-13</v>
       </c>
       <c r="C704" t="n">
-        <v>1.12909761e-14</v>
+        <v>1.010937294e-14</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
-        <v>3.17383</v>
+        <v>3.07697</v>
       </c>
       <c r="B705" t="n">
-        <v>6.53409342e-13</v>
+        <v>4.20273486e-13</v>
       </c>
       <c r="C705" t="n">
-        <v>9.662174639999998e-15</v>
+        <v>9.872757539999999e-15</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
-        <v>3.17484</v>
+        <v>3.07784</v>
       </c>
       <c r="B706" t="n">
-        <v>7.99040754e-13</v>
+        <v>3.4882749e-13</v>
       </c>
       <c r="C706" t="n">
-        <v>1.321776558e-14</v>
+        <v>9.788524379999999e-15</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
-        <v>3.17728</v>
+        <v>3.07801</v>
       </c>
       <c r="B707" t="n">
-        <v>9.018523080000001e-13</v>
+        <v>3.83051016e-13</v>
       </c>
       <c r="C707" t="n">
-        <v>1.290164292e-14</v>
+        <v>7.89290982e-15</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
-        <v>3.17815</v>
+        <v>3.08001</v>
       </c>
       <c r="B708" t="n">
-        <v>8.949605039999998e-13</v>
+        <v>3.27458412e-13</v>
       </c>
       <c r="C708" t="n">
-        <v>1.66388526e-14</v>
+        <v>1.149548742e-14</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
-        <v>3.18385</v>
+        <v>3.0819</v>
       </c>
       <c r="B709" t="n">
-        <v>3.20340726e-13</v>
+        <v>2.98245942e-13</v>
       </c>
       <c r="C709" t="n">
-        <v>6.41628234e-15</v>
+        <v>1.136168838e-14</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
-        <v>3.18385</v>
+        <v>3.08205</v>
       </c>
       <c r="B710" t="n">
-        <v>4.39575984e-13</v>
+        <v>3.37743252e-13</v>
       </c>
       <c r="C710" t="n">
-        <v>1.095577362e-14</v>
+        <v>9.278191260000002e-15</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
-        <v>3.18983</v>
+        <v>3.0829</v>
       </c>
       <c r="B711" t="n">
-        <v>2.06853444e-13</v>
+        <v>3.45106044e-13</v>
       </c>
       <c r="C711" t="n">
-        <v>3.584475e-15</v>
+        <v>9.027782639999999e-15</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
-        <v>3.19196</v>
+        <v>3.08356</v>
       </c>
       <c r="B712" t="n">
-        <v>1.72698804e-13</v>
+        <v>3.36931038e-13</v>
       </c>
       <c r="C712" t="n">
-        <v>4.54969602e-15</v>
+        <v>9.092199060000001e-15</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
-        <v>3.19392</v>
+        <v>3.08506</v>
       </c>
       <c r="B713" t="n">
-        <v>1.509582222e-13</v>
+        <v>3.41357364e-13</v>
       </c>
       <c r="C713" t="n">
-        <v>8.2317969e-15</v>
+        <v>9.319683060000002e-15</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
-        <v>3.19493</v>
+        <v>3.08579</v>
       </c>
       <c r="B714" t="n">
-        <v>1.490202828e-13</v>
+        <v>3.17417076e-13</v>
       </c>
       <c r="C714" t="n">
-        <v>9.529625159999999e-15</v>
+        <v>8.8533729e-15</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
-        <v>3.1959</v>
+        <v>3.08604</v>
       </c>
       <c r="B715" t="n">
-        <v>1.168260102e-13</v>
+        <v>3.3163803e-13</v>
       </c>
       <c r="C715" t="n">
-        <v>7.56373086e-15</v>
+        <v>9.88925814e-15</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
-        <v>3.19699</v>
+        <v>3.08798</v>
       </c>
       <c r="B716" t="n">
-        <v>1.106153766e-13</v>
+        <v>3.31730946e-13</v>
       </c>
       <c r="C716" t="n">
-        <v>7.364762460000001e-15</v>
+        <v>8.22192858e-15</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
-        <v>3.1976</v>
+        <v>3.08898</v>
       </c>
       <c r="B717" t="n">
-        <v>1.21593402e-13</v>
+        <v>3.05331588e-13</v>
       </c>
       <c r="C717" t="n">
-        <v>5.4937386e-15</v>
+        <v>8.114306219999999e-15</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="1" t="n">
+        <v>3.08959</v>
+      </c>
+      <c r="B718" t="n">
+        <v>3.1746033e-13</v>
+      </c>
+      <c r="C718" t="n">
+        <v>7.94947644e-15</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>3.08998</v>
+      </c>
+      <c r="B719" t="n">
+        <v>3.17543634e-13</v>
+      </c>
+      <c r="C719" t="n">
+        <v>8.356544639999999e-15</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>3.09102</v>
+      </c>
+      <c r="B720" t="n">
+        <v>3.12210576e-13</v>
+      </c>
+      <c r="C720" t="n">
+        <v>8.2021599e-15</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>3.09197</v>
+      </c>
+      <c r="B721" t="n">
+        <v>3.3014016e-13</v>
+      </c>
+      <c r="C721" t="n">
+        <v>9.107001539999999e-15</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>3.09305</v>
+      </c>
+      <c r="B722" t="n">
+        <v>3.15845514e-13</v>
+      </c>
+      <c r="C722" t="n">
+        <v>8.39329452e-15</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>3.0937</v>
+      </c>
+      <c r="B723" t="n">
+        <v>3.36186108e-13</v>
+      </c>
+      <c r="C723" t="n">
+        <v>8.67813012e-15</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>3.09412</v>
+      </c>
+      <c r="B724" t="n">
+        <v>3.09844422e-13</v>
+      </c>
+      <c r="C724" t="n">
+        <v>8.54013384e-15</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>3.09509</v>
+      </c>
+      <c r="B725" t="n">
+        <v>3.46387644e-13</v>
+      </c>
+      <c r="C725" t="n">
+        <v>8.61328116e-15</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>3.09597</v>
+      </c>
+      <c r="B726" t="n">
+        <v>3.388854780000001e-13</v>
+      </c>
+      <c r="C726" t="n">
+        <v>1.164596328e-14</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>3.09784</v>
+      </c>
+      <c r="B727" t="n">
+        <v>3.39334038e-13</v>
+      </c>
+      <c r="C727" t="n">
+        <v>9.11621304e-15</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>3.09799</v>
+      </c>
+      <c r="B728" t="n">
+        <v>3.55349232e-13</v>
+      </c>
+      <c r="C728" t="n">
+        <v>9.12089088e-15</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>3.09899</v>
+      </c>
+      <c r="B729" t="n">
+        <v>4.01441976e-13</v>
+      </c>
+      <c r="C729" t="n">
+        <v>8.226446220000001e-15</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>3.09945</v>
+      </c>
+      <c r="B730" t="n">
+        <v>4.20281496e-13</v>
+      </c>
+      <c r="C730" t="n">
+        <v>8.343872819999999e-15</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>3.0996</v>
+      </c>
+      <c r="B731" t="n">
+        <v>3.6883647e-13</v>
+      </c>
+      <c r="C731" t="n">
+        <v>1.13868558e-14</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>3.09994</v>
+      </c>
+      <c r="B732" t="n">
+        <v>3.98574396e-13</v>
+      </c>
+      <c r="C732" t="n">
+        <v>8.28439056e-15</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>3.09997</v>
+      </c>
+      <c r="B733" t="n">
+        <v>5.05113804e-13</v>
+      </c>
+      <c r="C733" t="n">
+        <v>1.152784782e-14</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>3.1005</v>
+      </c>
+      <c r="B734" t="n">
+        <v>7.47409896e-13</v>
+      </c>
+      <c r="C734" t="n">
+        <v>2.20661082e-14</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>3.10065</v>
+      </c>
+      <c r="B735" t="n">
+        <v>4.779262619999999e-13</v>
+      </c>
+      <c r="C735" t="n">
+        <v>1.133378154e-14</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>3.1007</v>
+      </c>
+      <c r="B736" t="n">
+        <v>9.087377040000001e-13</v>
+      </c>
+      <c r="C736" t="n">
+        <v>1.328448888e-14</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>3.10126</v>
+      </c>
+      <c r="B737" t="n">
+        <v>6.52957578e-13</v>
+      </c>
+      <c r="C737" t="n">
+        <v>1.181415726e-14</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>3.10145</v>
+      </c>
+      <c r="B738" t="n">
+        <v>7.4241486e-13</v>
+      </c>
+      <c r="C738" t="n">
+        <v>1.345202604e-14</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>3.10175</v>
+      </c>
+      <c r="B739" t="n">
+        <v>9.859412880000001e-13</v>
+      </c>
+      <c r="C739" t="n">
+        <v>1.338597558e-14</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>3.10211</v>
+      </c>
+      <c r="B740" t="n">
+        <v>1.519935948e-12</v>
+      </c>
+      <c r="C740" t="n">
+        <v>1.80098442e-14</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>3.10231</v>
+      </c>
+      <c r="B741" t="n">
+        <v>1.79289432e-12</v>
+      </c>
+      <c r="C741" t="n">
+        <v>1.95669882e-14</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>3.10248</v>
+      </c>
+      <c r="B742" t="n">
+        <v>1.92145482e-12</v>
+      </c>
+      <c r="C742" t="n">
+        <v>2.01885642e-14</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>3.10267</v>
+      </c>
+      <c r="B743" t="n">
+        <v>1.79009082e-12</v>
+      </c>
+      <c r="C743" t="n">
+        <v>2.07582354e-14</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>3.10301</v>
+      </c>
+      <c r="B744" t="n">
+        <v>1.54238958e-12</v>
+      </c>
+      <c r="C744" t="n">
+        <v>1.96067178e-14</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>3.10353</v>
+      </c>
+      <c r="B745" t="n">
+        <v>9.42515874e-13</v>
+      </c>
+      <c r="C745" t="n">
+        <v>1.420466166e-14</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>3.10401</v>
+      </c>
+      <c r="B746" t="n">
+        <v>6.44361246e-13</v>
+      </c>
+      <c r="C746" t="n">
+        <v>1.201471164e-14</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>3.10453</v>
+      </c>
+      <c r="B747" t="n">
+        <v>5.12774568e-13</v>
+      </c>
+      <c r="C747" t="n">
+        <v>1.101857202e-14</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>3.10489</v>
+      </c>
+      <c r="B748" t="n">
+        <v>3.88494612e-13</v>
+      </c>
+      <c r="C748" t="n">
+        <v>9.22617432e-15</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>3.10506</v>
+      </c>
+      <c r="B749" t="n">
+        <v>4.532602680000001e-13</v>
+      </c>
+      <c r="C749" t="n">
+        <v>9.21880512e-15</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>3.10538</v>
+      </c>
+      <c r="B750" t="n">
+        <v>4.24214406e-13</v>
+      </c>
+      <c r="C750" t="n">
+        <v>9.49963572e-15</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>3.10592</v>
+      </c>
+      <c r="B751" t="n">
+        <v>4.08721464e-13</v>
+      </c>
+      <c r="C751" t="n">
+        <v>9.49622346e-15</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>3.10658</v>
+      </c>
+      <c r="B752" t="n">
+        <v>3.74976936e-13</v>
+      </c>
+      <c r="C752" t="n">
+        <v>9.993276e-15</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>3.10709</v>
+      </c>
+      <c r="B753" t="n">
+        <v>3.642948e-13</v>
+      </c>
+      <c r="C753" t="n">
+        <v>1.048742892e-14</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>3.10745</v>
+      </c>
+      <c r="B754" t="n">
+        <v>3.59668224e-13</v>
+      </c>
+      <c r="C754" t="n">
+        <v>1.052196804e-14</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>3.10784</v>
+      </c>
+      <c r="B755" t="n">
+        <v>3.34504008e-13</v>
+      </c>
+      <c r="C755" t="n">
+        <v>1.058763402e-14</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>3.10882</v>
+      </c>
+      <c r="B756" t="n">
+        <v>3.64581558e-13</v>
+      </c>
+      <c r="C756" t="n">
+        <v>1.003074678e-14</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="B757" t="n">
+        <v>3.9349125e-13</v>
+      </c>
+      <c r="C757" t="n">
+        <v>1.167060204e-14</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>3.11278</v>
+      </c>
+      <c r="B758" t="n">
+        <v>3.79768518e-13</v>
+      </c>
+      <c r="C758" t="n">
+        <v>9.693493739999998e-15</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>3.11559</v>
+      </c>
+      <c r="B759" t="n">
+        <v>4.19554188e-13</v>
+      </c>
+      <c r="C759" t="n">
+        <v>1.170542952e-14</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>3.11669</v>
+      </c>
+      <c r="B760" t="n">
+        <v>4.12308342e-13</v>
+      </c>
+      <c r="C760" t="n">
+        <v>9.722730239999999e-15</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>3.12001</v>
+      </c>
+      <c r="B761" t="n">
+        <v>4.43159658e-13</v>
+      </c>
+      <c r="C761" t="n">
+        <v>1.15488981e-14</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>3.12075</v>
+      </c>
+      <c r="B762" t="n">
+        <v>4.42366668e-13</v>
+      </c>
+      <c r="C762" t="n">
+        <v>8.81619048e-15</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="B763" t="n">
+        <v>4.70677212e-13</v>
+      </c>
+      <c r="C763" t="n">
+        <v>1.1353374e-14</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>3.12473</v>
+      </c>
+      <c r="B764" t="n">
+        <v>4.615410060000001e-13</v>
+      </c>
+      <c r="C764" t="n">
+        <v>1.126825974e-14</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>3.12789</v>
+      </c>
+      <c r="B765" t="n">
+        <v>4.41854028e-13</v>
+      </c>
+      <c r="C765" t="n">
+        <v>1.064315934e-14</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>3.12882</v>
+      </c>
+      <c r="B766" t="n">
+        <v>4.52347128e-13</v>
+      </c>
+      <c r="C766" t="n">
+        <v>1.017194706e-14</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>3.13272</v>
+      </c>
+      <c r="B767" t="n">
+        <v>3.86693964e-13</v>
+      </c>
+      <c r="C767" t="n">
+        <v>1.339001262e-14</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>3.1349</v>
+      </c>
+      <c r="B768" t="n">
+        <v>4.07721816e-13</v>
+      </c>
+      <c r="C768" t="n">
+        <v>8.4356514e-15</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>3.13676</v>
+      </c>
+      <c r="B769" t="n">
+        <v>3.50487162e-13</v>
+      </c>
+      <c r="C769" t="n">
+        <v>9.948355919999999e-15</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>3.13895</v>
+      </c>
+      <c r="B770" t="n">
+        <v>3.46642362e-13</v>
+      </c>
+      <c r="C770" t="n">
+        <v>8.34520248e-15</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>3.14093</v>
+      </c>
+      <c r="B771" t="n">
+        <v>3.13259886e-13</v>
+      </c>
+      <c r="C771" t="n">
+        <v>1.036715076e-14</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>3.14273</v>
+      </c>
+      <c r="B772" t="n">
+        <v>3.2148936e-13</v>
+      </c>
+      <c r="C772" t="n">
+        <v>7.90141644e-15</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>3.14278</v>
+      </c>
+      <c r="B773" t="n">
+        <v>2.89491012e-13</v>
+      </c>
+      <c r="C773" t="n">
+        <v>7.82915022e-15</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>3.1468</v>
+      </c>
+      <c r="B774" t="n">
+        <v>2.47731678e-13</v>
+      </c>
+      <c r="C774" t="n">
+        <v>9.22112802e-15</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>3.14764</v>
+      </c>
+      <c r="B775" t="n">
+        <v>2.754863280000001e-13</v>
+      </c>
+      <c r="C775" t="n">
+        <v>9.4965759e-15</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>3.15086</v>
+      </c>
+      <c r="B776" t="n">
+        <v>2.50275654e-13</v>
+      </c>
+      <c r="C776" t="n">
+        <v>9.30076344e-15</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>3.15204</v>
+      </c>
+      <c r="B777" t="n">
+        <v>2.20214124e-13</v>
+      </c>
+      <c r="C777" t="n">
+        <v>8.845314839999999e-15</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>3.1529</v>
+      </c>
+      <c r="B778" t="n">
+        <v>2.20512096e-13</v>
+      </c>
+      <c r="C778" t="n">
+        <v>8.834677560000001e-15</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>3.15511</v>
+      </c>
+      <c r="B779" t="n">
+        <v>2.15704494e-13</v>
+      </c>
+      <c r="C779" t="n">
+        <v>1.007957574e-14</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>3.15609</v>
+      </c>
+      <c r="B780" t="n">
+        <v>2.18706642e-13</v>
+      </c>
+      <c r="C780" t="n">
+        <v>1.146001914e-14</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="B781" t="n">
+        <v>2.12077566e-13</v>
+      </c>
+      <c r="C781" t="n">
+        <v>5.66117964e-15</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="B782" t="n">
+        <v>2.07165834e-13</v>
+      </c>
+      <c r="C782" t="n">
+        <v>7.125055199999999e-15</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>3.15782</v>
+      </c>
+      <c r="B783" t="n">
+        <v>2.21703984e-13</v>
+      </c>
+      <c r="C783" t="n">
+        <v>8.142837839999999e-15</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>3.15821</v>
+      </c>
+      <c r="B784" t="n">
+        <v>2.2711554e-13</v>
+      </c>
+      <c r="C784" t="n">
+        <v>1.128788424e-14</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>3.15836</v>
+      </c>
+      <c r="B785" t="n">
+        <v>2.28273786e-13</v>
+      </c>
+      <c r="C785" t="n">
+        <v>6.0460281e-15</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>3.15887</v>
+      </c>
+      <c r="B786" t="n">
+        <v>2.38971942e-13</v>
+      </c>
+      <c r="C786" t="n">
+        <v>7.75851804e-15</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>3.15905</v>
+      </c>
+      <c r="B787" t="n">
+        <v>2.6357706e-13</v>
+      </c>
+      <c r="C787" t="n">
+        <v>1.270070406e-14</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>3.15919</v>
+      </c>
+      <c r="B788" t="n">
+        <v>3.16612872e-13</v>
+      </c>
+      <c r="C788" t="n">
+        <v>1.224580014e-14</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>3.15956</v>
+      </c>
+      <c r="B789" t="n">
+        <v>6.23045034e-13</v>
+      </c>
+      <c r="C789" t="n">
+        <v>1.68873228e-14</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>3.15976</v>
+      </c>
+      <c r="B790" t="n">
+        <v>1.211611824e-12</v>
+      </c>
+      <c r="C790" t="n">
+        <v>2.05435674e-14</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>3.15981</v>
+      </c>
+      <c r="B791" t="n">
+        <v>3.1157298e-13</v>
+      </c>
+      <c r="C791" t="n">
+        <v>1.029043098e-14</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>3.16079</v>
+      </c>
+      <c r="B792" t="n">
+        <v>9.8349183e-13</v>
+      </c>
+      <c r="C792" t="n">
+        <v>1.96019118e-14</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>3.16087</v>
+      </c>
+      <c r="B793" t="n">
+        <v>8.790478380000002e-13</v>
+      </c>
+      <c r="C793" t="n">
+        <v>1.258236432e-14</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>3.16166</v>
+      </c>
+      <c r="B794" t="n">
+        <v>3.45131676e-13</v>
+      </c>
+      <c r="C794" t="n">
+        <v>5.94274716e-15</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>3.16183</v>
+      </c>
+      <c r="B795" t="n">
+        <v>3.284452440000001e-13</v>
+      </c>
+      <c r="C795" t="n">
+        <v>1.305408924e-14</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>3.16249</v>
+      </c>
+      <c r="B796" t="n">
+        <v>2.8236051e-13</v>
+      </c>
+      <c r="C796" t="n">
+        <v>7.42065624e-15</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>3.16301</v>
+      </c>
+      <c r="B797" t="n">
+        <v>2.6483463e-13</v>
+      </c>
+      <c r="C797" t="n">
+        <v>1.025618022e-14</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>3.16316</v>
+      </c>
+      <c r="B798" t="n">
+        <v>2.63025972e-13</v>
+      </c>
+      <c r="C798" t="n">
+        <v>6.8504724e-15</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>3.1637</v>
+      </c>
+      <c r="B799" t="n">
+        <v>2.50366968e-13</v>
+      </c>
+      <c r="C799" t="n">
+        <v>1.223908776e-14</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>3.16392</v>
+      </c>
+      <c r="B800" t="n">
+        <v>2.53446012e-13</v>
+      </c>
+      <c r="C800" t="n">
+        <v>5.73426288e-15</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>3.16488</v>
+      </c>
+      <c r="B801" t="n">
+        <v>2.44856088e-13</v>
+      </c>
+      <c r="C801" t="n">
+        <v>1.24038855e-14</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>3.16525</v>
+      </c>
+      <c r="B802" t="n">
+        <v>2.56190238e-13</v>
+      </c>
+      <c r="C802" t="n">
+        <v>5.44454118e-15</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>3.16592</v>
+      </c>
+      <c r="B803" t="n">
+        <v>2.72038824e-13</v>
+      </c>
+      <c r="C803" t="n">
+        <v>1.339286418e-14</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>3.16661</v>
+      </c>
+      <c r="B804" t="n">
+        <v>2.672728740000001e-13</v>
+      </c>
+      <c r="C804" t="n">
+        <v>7.92275508e-15</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>3.1671</v>
+      </c>
+      <c r="B805" t="n">
+        <v>3.22767756e-13</v>
+      </c>
+      <c r="C805" t="n">
+        <v>1.316994588e-14</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>3.16764</v>
+      </c>
+      <c r="B806" t="n">
+        <v>2.85862482e-13</v>
+      </c>
+      <c r="C806" t="n">
+        <v>7.74707976e-15</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>3.16808</v>
+      </c>
+      <c r="B807" t="n">
+        <v>3.13509798e-13</v>
+      </c>
+      <c r="C807" t="n">
+        <v>1.336753656e-14</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>3.1689</v>
+      </c>
+      <c r="B808" t="n">
+        <v>3.11427198e-13</v>
+      </c>
+      <c r="C808" t="n">
+        <v>7.717378679999999e-15</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>3.16897</v>
+      </c>
+      <c r="B809" t="n">
+        <v>3.29449698e-13</v>
+      </c>
+      <c r="C809" t="n">
+        <v>1.395664002e-14</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>3.17003</v>
+      </c>
+      <c r="B810" t="n">
+        <v>3.80567916e-13</v>
+      </c>
+      <c r="C810" t="n">
+        <v>1.478314386e-14</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>3.17043</v>
+      </c>
+      <c r="B811" t="n">
+        <v>3.86653914e-13</v>
+      </c>
+      <c r="C811" t="n">
+        <v>8.8560963e-15</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>3.17104</v>
+      </c>
+      <c r="B812" t="n">
+        <v>4.27988718e-13</v>
+      </c>
+      <c r="C812" t="n">
+        <v>1.42396974e-14</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>3.172</v>
+      </c>
+      <c r="B813" t="n">
+        <v>5.3751105e-13</v>
+      </c>
+      <c r="C813" t="n">
+        <v>1.440324558e-14</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>3.17279</v>
+      </c>
+      <c r="B814" t="n">
+        <v>5.5534131e-13</v>
+      </c>
+      <c r="C814" t="n">
+        <v>1.12909761e-14</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>3.17292</v>
+      </c>
+      <c r="B815" t="n">
+        <v>6.54466662e-13</v>
+      </c>
+      <c r="C815" t="n">
+        <v>1.7481825e-14</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>3.17383</v>
+      </c>
+      <c r="B816" t="n">
+        <v>6.53409342e-13</v>
+      </c>
+      <c r="C816" t="n">
+        <v>9.662174639999998e-15</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>3.17405</v>
+      </c>
+      <c r="B817" t="n">
+        <v>7.21419048e-13</v>
+      </c>
+      <c r="C817" t="n">
+        <v>1.72915074e-14</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>3.17462</v>
+      </c>
+      <c r="B818" t="n">
+        <v>8.228144340000001e-13</v>
+      </c>
+      <c r="C818" t="n">
+        <v>1.76574042e-14</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>3.17484</v>
+      </c>
+      <c r="B819" t="n">
+        <v>7.99040754e-13</v>
+      </c>
+      <c r="C819" t="n">
+        <v>1.321776558e-14</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>3.17509</v>
+      </c>
+      <c r="B820" t="n">
+        <v>9.21749148e-13</v>
+      </c>
+      <c r="C820" t="n">
+        <v>1.92110238e-14</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>3.17593</v>
+      </c>
+      <c r="B821" t="n">
+        <v>1.000447398e-12</v>
+      </c>
+      <c r="C821" t="n">
+        <v>1.94798394e-14</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>3.17709</v>
+      </c>
+      <c r="B822" t="n">
+        <v>1.08540306e-12</v>
+      </c>
+      <c r="C822" t="n">
+        <v>2.07279576e-14</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>3.17728</v>
+      </c>
+      <c r="B823" t="n">
+        <v>9.018523080000001e-13</v>
+      </c>
+      <c r="C823" t="n">
+        <v>1.290164292e-14</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>3.17763</v>
+      </c>
+      <c r="B824" t="n">
+        <v>1.06237431e-12</v>
+      </c>
+      <c r="C824" t="n">
+        <v>2.04857352e-14</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>3.17783</v>
+      </c>
+      <c r="B825" t="n">
+        <v>1.07954775e-12</v>
+      </c>
+      <c r="C825" t="n">
+        <v>2.16897984e-14</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>3.17815</v>
+      </c>
+      <c r="B826" t="n">
+        <v>8.949605039999998e-13</v>
+      </c>
+      <c r="C826" t="n">
+        <v>1.66388526e-14</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>3.17849</v>
+      </c>
+      <c r="B827" t="n">
+        <v>1.025811864e-12</v>
+      </c>
+      <c r="C827" t="n">
+        <v>2.01672576e-14</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>3.17886</v>
+      </c>
+      <c r="B828" t="n">
+        <v>1.013619042e-12</v>
+      </c>
+      <c r="C828" t="n">
+        <v>2.13556212e-14</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>3.17983</v>
+      </c>
+      <c r="B829" t="n">
+        <v>8.495550179999999e-13</v>
+      </c>
+      <c r="C829" t="n">
+        <v>1.6386858e-14</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>3.18111</v>
+      </c>
+      <c r="B830" t="n">
+        <v>7.054775460000001e-13</v>
+      </c>
+      <c r="C830" t="n">
+        <v>1.80029556e-14</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>3.18198</v>
+      </c>
+      <c r="B831" t="n">
+        <v>5.900678640000001e-13</v>
+      </c>
+      <c r="C831" t="n">
+        <v>1.582096752e-14</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>3.18299</v>
+      </c>
+      <c r="B832" t="n">
+        <v>4.98872412e-13</v>
+      </c>
+      <c r="C832" t="n">
+        <v>1.549311822e-14</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>3.18385</v>
+      </c>
+      <c r="B833" t="n">
+        <v>3.20340726e-13</v>
+      </c>
+      <c r="C833" t="n">
+        <v>6.41628234e-15</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>3.18385</v>
+      </c>
+      <c r="B834" t="n">
+        <v>4.39575984e-13</v>
+      </c>
+      <c r="C834" t="n">
+        <v>1.095577362e-14</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>3.18398</v>
+      </c>
+      <c r="B835" t="n">
+        <v>4.30708914e-13</v>
+      </c>
+      <c r="C835" t="n">
+        <v>1.429682472e-14</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>3.18499</v>
+      </c>
+      <c r="B836" t="n">
+        <v>3.32826714e-13</v>
+      </c>
+      <c r="C836" t="n">
+        <v>1.291328946e-14</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="B837" t="n">
+        <v>2.84686614e-13</v>
+      </c>
+      <c r="C837" t="n">
+        <v>1.18491129e-14</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>3.18704</v>
+      </c>
+      <c r="B838" t="n">
+        <v>2.881004759999999e-13</v>
+      </c>
+      <c r="C838" t="n">
+        <v>1.212715602e-14</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>3.18805</v>
+      </c>
+      <c r="B839" t="n">
+        <v>2.48122566e-13</v>
+      </c>
+      <c r="C839" t="n">
+        <v>1.121106834e-14</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>3.18892</v>
+      </c>
+      <c r="B840" t="n">
+        <v>2.24972064e-13</v>
+      </c>
+      <c r="C840" t="n">
+        <v>1.037451996e-14</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>3.18983</v>
+      </c>
+      <c r="B841" t="n">
+        <v>2.06853444e-13</v>
+      </c>
+      <c r="C841" t="n">
+        <v>3.584475e-15</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>3.18993</v>
+      </c>
+      <c r="B842" t="n">
+        <v>2.04033924e-13</v>
+      </c>
+      <c r="C842" t="n">
+        <v>1.137194118e-14</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>3.191</v>
+      </c>
+      <c r="B843" t="n">
+        <v>1.85428296e-13</v>
+      </c>
+      <c r="C843" t="n">
+        <v>1.029001446e-14</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>3.19196</v>
+      </c>
+      <c r="B844" t="n">
+        <v>1.72698804e-13</v>
+      </c>
+      <c r="C844" t="n">
+        <v>4.54969602e-15</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>3.19199</v>
+      </c>
+      <c r="B845" t="n">
+        <v>1.66867524e-13</v>
+      </c>
+      <c r="C845" t="n">
+        <v>8.93159856e-15</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>3.19298</v>
+      </c>
+      <c r="B846" t="n">
+        <v>1.68269274e-13</v>
+      </c>
+      <c r="C846" t="n">
+        <v>1.06804539e-14</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>3.19384</v>
+      </c>
+      <c r="B847" t="n">
+        <v>1.335978288e-13</v>
+      </c>
+      <c r="C847" t="n">
+        <v>8.36293662e-15</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>3.19392</v>
+      </c>
+      <c r="B848" t="n">
+        <v>1.509582222e-13</v>
+      </c>
+      <c r="C848" t="n">
+        <v>8.2317969e-15</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>3.19493</v>
+      </c>
+      <c r="B849" t="n">
+        <v>1.490202828e-13</v>
+      </c>
+      <c r="C849" t="n">
+        <v>9.529625159999999e-15</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>3.19501</v>
+      </c>
+      <c r="B850" t="n">
+        <v>1.411855416e-13</v>
+      </c>
+      <c r="C850" t="n">
+        <v>8.78493546e-15</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>3.1959</v>
+      </c>
+      <c r="B851" t="n">
+        <v>1.168260102e-13</v>
+      </c>
+      <c r="C851" t="n">
+        <v>7.56373086e-15</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>3.196</v>
+      </c>
+      <c r="B852" t="n">
+        <v>1.09379754e-13</v>
+      </c>
+      <c r="C852" t="n">
+        <v>8.93280006e-15</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>3.19699</v>
+      </c>
+      <c r="B853" t="n">
+        <v>1.376803656e-13</v>
+      </c>
+      <c r="C853" t="n">
+        <v>1.119608964e-14</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>3.19699</v>
+      </c>
+      <c r="B854" t="n">
+        <v>1.106153766e-13</v>
+      </c>
+      <c r="C854" t="n">
+        <v>7.364762460000001e-15</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>3.1976</v>
+      </c>
+      <c r="B855" t="n">
+        <v>1.21593402e-13</v>
+      </c>
+      <c r="C855" t="n">
+        <v>5.4937386e-15</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>3.19795</v>
+      </c>
+      <c r="B856" t="n">
+        <v>1.263622356e-13</v>
+      </c>
+      <c r="C856" t="n">
+        <v>1.021919004e-14</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
         <v>3.19867</v>
       </c>
-      <c r="B718" t="n">
+      <c r="B857" t="n">
         <v>1.146114054e-13</v>
       </c>
-      <c r="C718" t="n">
+      <c r="C857" t="n">
         <v>8.418990599999999e-15</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>3.19892</v>
+      </c>
+      <c r="B858" t="n">
+        <v>1.250194392e-13</v>
+      </c>
+      <c r="C858" t="n">
+        <v>9.733335480000001e-15</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>3.2005</v>
+      </c>
+      <c r="B859" t="n">
+        <v>1.092152286e-13</v>
+      </c>
+      <c r="C859" t="n">
+        <v>6.79595634e-15</v>
       </c>
     </row>
   </sheetData>
